--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>625.7</v>
+        <v>628.4</v>
       </c>
       <c r="C2" t="n">
-        <v>625.8</v>
+        <v>622.3</v>
       </c>
       <c r="D2" t="n">
-        <v>625.8</v>
+        <v>628.4</v>
       </c>
       <c r="E2" t="n">
-        <v>625.7</v>
+        <v>622.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>227.6548</v>
       </c>
       <c r="G2" t="n">
-        <v>642.425</v>
+        <v>642.745</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621</v>
+        <v>625.7</v>
       </c>
       <c r="C3" t="n">
-        <v>621</v>
+        <v>625.8</v>
       </c>
       <c r="D3" t="n">
-        <v>621</v>
+        <v>625.8</v>
       </c>
       <c r="E3" t="n">
-        <v>621</v>
+        <v>625.7</v>
       </c>
       <c r="F3" t="n">
-        <v>766.1585</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>642.0583333333333</v>
+        <v>642.425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C4" t="n">
-        <v>619.3</v>
+        <v>621</v>
       </c>
       <c r="D4" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E4" t="n">
-        <v>617.5</v>
+        <v>621</v>
       </c>
       <c r="F4" t="n">
-        <v>12887.2915</v>
+        <v>766.1585</v>
       </c>
       <c r="G4" t="n">
-        <v>641.6633333333334</v>
+        <v>642.0583333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617.9</v>
+        <v>622</v>
       </c>
       <c r="C5" t="n">
-        <v>617.8</v>
+        <v>619.3</v>
       </c>
       <c r="D5" t="n">
-        <v>617.9</v>
+        <v>624</v>
       </c>
       <c r="E5" t="n">
-        <v>617.8</v>
+        <v>617.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1274.47</v>
+        <v>12887.2915</v>
       </c>
       <c r="G5" t="n">
-        <v>641.2433333333335</v>
+        <v>641.6633333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616.9</v>
+        <v>617.9</v>
       </c>
       <c r="C6" t="n">
-        <v>615.2</v>
+        <v>617.8</v>
       </c>
       <c r="D6" t="n">
-        <v>616.9</v>
+        <v>617.9</v>
       </c>
       <c r="E6" t="n">
-        <v>615.2</v>
+        <v>617.8</v>
       </c>
       <c r="F6" t="n">
-        <v>2362.873</v>
+        <v>1274.47</v>
       </c>
       <c r="G6" t="n">
-        <v>640.7800000000001</v>
+        <v>641.2433333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615.2</v>
+        <v>616.9</v>
       </c>
       <c r="C7" t="n">
         <v>615.2</v>
       </c>
       <c r="D7" t="n">
-        <v>615.2</v>
+        <v>616.9</v>
       </c>
       <c r="E7" t="n">
         <v>615.2</v>
       </c>
       <c r="F7" t="n">
-        <v>303.944</v>
+        <v>2362.873</v>
       </c>
       <c r="G7" t="n">
-        <v>640.3166666666667</v>
+        <v>640.7800000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>616.9</v>
+        <v>615.2</v>
       </c>
       <c r="C8" t="n">
-        <v>616.9</v>
+        <v>615.2</v>
       </c>
       <c r="D8" t="n">
-        <v>616.9</v>
+        <v>615.2</v>
       </c>
       <c r="E8" t="n">
-        <v>616.9</v>
+        <v>615.2</v>
       </c>
       <c r="F8" t="n">
-        <v>91.5635</v>
+        <v>303.944</v>
       </c>
       <c r="G8" t="n">
-        <v>639.7833333333333</v>
+        <v>640.3166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613.6</v>
+        <v>616.9</v>
       </c>
       <c r="C9" t="n">
-        <v>613.6</v>
+        <v>616.9</v>
       </c>
       <c r="D9" t="n">
-        <v>613.6</v>
+        <v>616.9</v>
       </c>
       <c r="E9" t="n">
-        <v>613.6</v>
+        <v>616.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1016.6934</v>
+        <v>91.5635</v>
       </c>
       <c r="G9" t="n">
-        <v>639.26</v>
+        <v>639.7833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613</v>
+        <v>613.6</v>
       </c>
       <c r="C10" t="n">
-        <v>610.3</v>
+        <v>613.6</v>
       </c>
       <c r="D10" t="n">
-        <v>613</v>
+        <v>613.6</v>
       </c>
       <c r="E10" t="n">
-        <v>609.4</v>
+        <v>613.6</v>
       </c>
       <c r="F10" t="n">
-        <v>7602.9414</v>
+        <v>1016.6934</v>
       </c>
       <c r="G10" t="n">
-        <v>638.6983333333334</v>
+        <v>639.26</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610.3</v>
+        <v>613</v>
       </c>
       <c r="C11" t="n">
         <v>610.3</v>
       </c>
       <c r="D11" t="n">
-        <v>610.3</v>
+        <v>613</v>
       </c>
       <c r="E11" t="n">
-        <v>610.3</v>
+        <v>609.4</v>
       </c>
       <c r="F11" t="n">
-        <v>440</v>
+        <v>7602.9414</v>
       </c>
       <c r="G11" t="n">
-        <v>638.0550000000001</v>
+        <v>638.6983333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>610.3</v>
       </c>
       <c r="F12" t="n">
-        <v>783.771</v>
+        <v>440</v>
       </c>
       <c r="G12" t="n">
-        <v>637.4116666666667</v>
+        <v>638.0550000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612.6</v>
+        <v>610.3</v>
       </c>
       <c r="C13" t="n">
-        <v>612.6</v>
+        <v>610.3</v>
       </c>
       <c r="D13" t="n">
-        <v>612.6</v>
+        <v>610.3</v>
       </c>
       <c r="E13" t="n">
-        <v>612.6</v>
+        <v>610.3</v>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>783.771</v>
       </c>
       <c r="G13" t="n">
-        <v>636.8233333333334</v>
+        <v>637.4116666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>611.5</v>
+        <v>612.6</v>
       </c>
       <c r="C14" t="n">
-        <v>611.5</v>
+        <v>612.6</v>
       </c>
       <c r="D14" t="n">
-        <v>611.5</v>
+        <v>612.6</v>
       </c>
       <c r="E14" t="n">
-        <v>611.5</v>
+        <v>612.6</v>
       </c>
       <c r="F14" t="n">
-        <v>330.3</v>
+        <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>636.2</v>
+        <v>636.8233333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612.5</v>
+        <v>611.5</v>
       </c>
       <c r="C15" t="n">
-        <v>612.5</v>
+        <v>611.5</v>
       </c>
       <c r="D15" t="n">
-        <v>612.5</v>
+        <v>611.5</v>
       </c>
       <c r="E15" t="n">
-        <v>612.5</v>
+        <v>611.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>330.3</v>
       </c>
       <c r="G15" t="n">
-        <v>635.5283333333333</v>
+        <v>636.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>612.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>634.9216666666666</v>
+        <v>635.5283333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>612.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1109.9654</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>634.2633333333332</v>
+        <v>634.9216666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,23 +1005,19 @@
         <v>612.5</v>
       </c>
       <c r="F18" t="n">
-        <v>82.1665</v>
+        <v>1109.9654</v>
       </c>
       <c r="G18" t="n">
-        <v>633.6266666666667</v>
+        <v>634.2633333333332</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>612.5</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1032,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>611.5</v>
+        <v>612.5</v>
       </c>
       <c r="C19" t="n">
-        <v>611.5</v>
+        <v>612.5</v>
       </c>
       <c r="D19" t="n">
-        <v>611.5</v>
+        <v>612.5</v>
       </c>
       <c r="E19" t="n">
-        <v>611.5</v>
+        <v>612.5</v>
       </c>
       <c r="F19" t="n">
-        <v>115.9999</v>
+        <v>82.1665</v>
       </c>
       <c r="G19" t="n">
-        <v>632.9866666666666</v>
+        <v>633.6266666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1056,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1073,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>610.3</v>
+        <v>611.5</v>
       </c>
       <c r="C20" t="n">
-        <v>610.3</v>
+        <v>611.5</v>
       </c>
       <c r="D20" t="n">
-        <v>610.3</v>
+        <v>611.5</v>
       </c>
       <c r="E20" t="n">
-        <v>610.3</v>
+        <v>611.5</v>
       </c>
       <c r="F20" t="n">
-        <v>383.7523</v>
+        <v>115.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>632.3099999999999</v>
+        <v>632.9866666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1097,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1114,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>611.5</v>
+        <v>610.3</v>
       </c>
       <c r="C21" t="n">
-        <v>611.5</v>
+        <v>610.3</v>
       </c>
       <c r="D21" t="n">
-        <v>611.5</v>
+        <v>610.3</v>
       </c>
       <c r="E21" t="n">
-        <v>611.5</v>
+        <v>610.3</v>
       </c>
       <c r="F21" t="n">
-        <v>116.7</v>
+        <v>383.7523</v>
       </c>
       <c r="G21" t="n">
-        <v>631.6533333333333</v>
+        <v>632.3099999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1152,19 +1136,19 @@
         <v>611.5</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4</v>
+        <v>611.5</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4</v>
+        <v>611.5</v>
       </c>
       <c r="E22" t="n">
-        <v>610</v>
+        <v>611.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2412.6815</v>
+        <v>116.7</v>
       </c>
       <c r="G22" t="n">
-        <v>631.2083333333334</v>
+        <v>631.6533333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="C23" t="n">
         <v>612.4</v>
       </c>
-      <c r="C23" t="n">
-        <v>612.5</v>
-      </c>
       <c r="D23" t="n">
-        <v>612.5</v>
+        <v>612.4</v>
       </c>
       <c r="E23" t="n">
-        <v>612.4</v>
+        <v>610</v>
       </c>
       <c r="F23" t="n">
-        <v>360</v>
+        <v>2412.6815</v>
       </c>
       <c r="G23" t="n">
-        <v>630.5866666666666</v>
+        <v>631.2083333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>612.5</v>
+        <v>612.4</v>
       </c>
       <c r="C24" t="n">
         <v>612.5</v>
@@ -1228,13 +1212,13 @@
         <v>612.5</v>
       </c>
       <c r="E24" t="n">
-        <v>612.5</v>
+        <v>612.4</v>
       </c>
       <c r="F24" t="n">
-        <v>10301.5913</v>
+        <v>360</v>
       </c>
       <c r="G24" t="n">
-        <v>629.9783333333332</v>
+        <v>630.5866666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>613.6</v>
+        <v>612.5</v>
       </c>
       <c r="C25" t="n">
-        <v>613.6</v>
+        <v>612.5</v>
       </c>
       <c r="D25" t="n">
-        <v>613.6</v>
+        <v>612.5</v>
       </c>
       <c r="E25" t="n">
-        <v>613.6</v>
+        <v>612.5</v>
       </c>
       <c r="F25" t="n">
-        <v>3400</v>
+        <v>10301.5913</v>
       </c>
       <c r="G25" t="n">
-        <v>629.3549999999999</v>
+        <v>629.9783333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1301,10 +1285,10 @@
         <v>613.6</v>
       </c>
       <c r="F26" t="n">
-        <v>320</v>
+        <v>3400</v>
       </c>
       <c r="G26" t="n">
-        <v>628.9616666666666</v>
+        <v>629.3549999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1336,10 +1320,10 @@
         <v>613.6</v>
       </c>
       <c r="F27" t="n">
-        <v>611.1353</v>
+        <v>320</v>
       </c>
       <c r="G27" t="n">
-        <v>628.4283333333333</v>
+        <v>628.9616666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1371,10 +1355,10 @@
         <v>613.6</v>
       </c>
       <c r="F28" t="n">
-        <v>22.2241</v>
+        <v>611.1353</v>
       </c>
       <c r="G28" t="n">
-        <v>628.035</v>
+        <v>628.4283333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1394,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>617</v>
+        <v>613.6</v>
       </c>
       <c r="C29" t="n">
-        <v>617.1</v>
+        <v>613.6</v>
       </c>
       <c r="D29" t="n">
-        <v>617.1</v>
+        <v>613.6</v>
       </c>
       <c r="E29" t="n">
-        <v>617</v>
+        <v>613.6</v>
       </c>
       <c r="F29" t="n">
-        <v>2110</v>
+        <v>22.2241</v>
       </c>
       <c r="G29" t="n">
-        <v>627.5033333333333</v>
+        <v>628.035</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1432,19 +1416,19 @@
         <v>617</v>
       </c>
       <c r="C30" t="n">
-        <v>617</v>
+        <v>617.1</v>
       </c>
       <c r="D30" t="n">
-        <v>617</v>
+        <v>617.1</v>
       </c>
       <c r="E30" t="n">
         <v>617</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>2110</v>
       </c>
       <c r="G30" t="n">
-        <v>627.0966666666666</v>
+        <v>627.5033333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1464,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>616.9</v>
+        <v>617</v>
       </c>
       <c r="C31" t="n">
         <v>617</v>
@@ -1473,13 +1457,13 @@
         <v>617</v>
       </c>
       <c r="E31" t="n">
-        <v>616.9</v>
+        <v>617</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>626.6033333333332</v>
+        <v>627.0966666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>614.7</v>
+        <v>616.9</v>
       </c>
       <c r="C32" t="n">
-        <v>614.7</v>
+        <v>617</v>
       </c>
       <c r="D32" t="n">
-        <v>614.7</v>
+        <v>617</v>
       </c>
       <c r="E32" t="n">
-        <v>614.7</v>
+        <v>616.9</v>
       </c>
       <c r="F32" t="n">
-        <v>497.0066</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>626.0333333333332</v>
+        <v>626.6033333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1537,19 +1521,19 @@
         <v>614.7</v>
       </c>
       <c r="C33" t="n">
-        <v>613.4</v>
+        <v>614.7</v>
       </c>
       <c r="D33" t="n">
         <v>614.7</v>
       </c>
       <c r="E33" t="n">
-        <v>613.4</v>
+        <v>614.7</v>
       </c>
       <c r="F33" t="n">
-        <v>554.0372</v>
+        <v>497.0066</v>
       </c>
       <c r="G33" t="n">
-        <v>625.5883333333333</v>
+        <v>626.0333333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>617.1</v>
+        <v>614.7</v>
       </c>
       <c r="C34" t="n">
-        <v>617.1</v>
+        <v>613.4</v>
       </c>
       <c r="D34" t="n">
-        <v>617.1</v>
+        <v>614.7</v>
       </c>
       <c r="E34" t="n">
-        <v>617.1</v>
+        <v>613.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>554.0372</v>
       </c>
       <c r="G34" t="n">
-        <v>625.1966666666666</v>
+        <v>625.5883333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1616,10 +1600,10 @@
         <v>617.1</v>
       </c>
       <c r="F35" t="n">
-        <v>944.7581</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>624.6683333333332</v>
+        <v>625.1966666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1639,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>618.8</v>
+        <v>617.1</v>
       </c>
       <c r="C36" t="n">
-        <v>618.7</v>
+        <v>617.1</v>
       </c>
       <c r="D36" t="n">
-        <v>618.8</v>
+        <v>617.1</v>
       </c>
       <c r="E36" t="n">
-        <v>618.7</v>
+        <v>617.1</v>
       </c>
       <c r="F36" t="n">
-        <v>4050.9562</v>
+        <v>944.7581</v>
       </c>
       <c r="G36" t="n">
-        <v>624.2666666666664</v>
+        <v>624.6683333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1674,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="C37" t="n">
         <v>618.7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>618.8</v>
       </c>
       <c r="D37" t="n">
         <v>618.8</v>
@@ -1686,10 +1670,10 @@
         <v>618.7</v>
       </c>
       <c r="F37" t="n">
-        <v>1302.7106</v>
+        <v>4050.9562</v>
       </c>
       <c r="G37" t="n">
-        <v>623.7883333333332</v>
+        <v>624.2666666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>615</v>
+        <v>618.7</v>
       </c>
       <c r="C38" t="n">
-        <v>615</v>
+        <v>618.8</v>
       </c>
       <c r="D38" t="n">
-        <v>615</v>
+        <v>618.8</v>
       </c>
       <c r="E38" t="n">
-        <v>615</v>
+        <v>618.7</v>
       </c>
       <c r="F38" t="n">
-        <v>1374.4504</v>
+        <v>1302.7106</v>
       </c>
       <c r="G38" t="n">
-        <v>623.2399999999998</v>
+        <v>623.7883333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1756,10 +1740,10 @@
         <v>615</v>
       </c>
       <c r="F39" t="n">
-        <v>538.5008</v>
+        <v>1374.4504</v>
       </c>
       <c r="G39" t="n">
-        <v>622.8233333333332</v>
+        <v>623.2399999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1779,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C40" t="n">
-        <v>618.7</v>
+        <v>615</v>
       </c>
       <c r="D40" t="n">
-        <v>618.7</v>
+        <v>615</v>
       </c>
       <c r="E40" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F40" t="n">
-        <v>1931.5483</v>
+        <v>538.5008</v>
       </c>
       <c r="G40" t="n">
-        <v>622.5016666666664</v>
+        <v>622.8233333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1814,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C41" t="n">
-        <v>619</v>
+        <v>618.7</v>
       </c>
       <c r="D41" t="n">
-        <v>619</v>
+        <v>618.7</v>
       </c>
       <c r="E41" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F41" t="n">
-        <v>169.0507</v>
+        <v>1931.5483</v>
       </c>
       <c r="G41" t="n">
-        <v>622.2016666666664</v>
+        <v>622.5016666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1861,10 +1845,10 @@
         <v>619</v>
       </c>
       <c r="F42" t="n">
-        <v>78.94929999999999</v>
+        <v>169.0507</v>
       </c>
       <c r="G42" t="n">
-        <v>621.7866666666664</v>
+        <v>622.2016666666664</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>623.9</v>
+        <v>619</v>
       </c>
       <c r="C43" t="n">
-        <v>623.9</v>
+        <v>619</v>
       </c>
       <c r="D43" t="n">
-        <v>623.9</v>
+        <v>619</v>
       </c>
       <c r="E43" t="n">
-        <v>623.9</v>
+        <v>619</v>
       </c>
       <c r="F43" t="n">
-        <v>3965.4425</v>
+        <v>78.94929999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>621.388333333333</v>
+        <v>621.7866666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1919,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>624</v>
+        <v>623.9</v>
       </c>
       <c r="C44" t="n">
-        <v>617.1</v>
+        <v>623.9</v>
       </c>
       <c r="D44" t="n">
-        <v>625</v>
+        <v>623.9</v>
       </c>
       <c r="E44" t="n">
-        <v>617.1</v>
+        <v>623.9</v>
       </c>
       <c r="F44" t="n">
-        <v>4384.0063</v>
+        <v>3965.4425</v>
       </c>
       <c r="G44" t="n">
-        <v>621.0416666666663</v>
+        <v>621.388333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1954,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>623.4</v>
+        <v>624</v>
       </c>
       <c r="C45" t="n">
-        <v>623.5</v>
+        <v>617.1</v>
       </c>
       <c r="D45" t="n">
-        <v>623.5</v>
+        <v>625</v>
       </c>
       <c r="E45" t="n">
-        <v>623.4</v>
+        <v>617.1</v>
       </c>
       <c r="F45" t="n">
-        <v>2708.9755</v>
+        <v>4384.0063</v>
       </c>
       <c r="G45" t="n">
-        <v>620.7716666666663</v>
+        <v>621.0416666666663</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1989,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>622.9</v>
+        <v>623.4</v>
       </c>
       <c r="C46" t="n">
-        <v>621</v>
+        <v>623.5</v>
       </c>
       <c r="D46" t="n">
-        <v>622.9</v>
+        <v>623.5</v>
       </c>
       <c r="E46" t="n">
-        <v>621</v>
+        <v>623.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1141.6304</v>
+        <v>2708.9755</v>
       </c>
       <c r="G46" t="n">
-        <v>620.4899999999997</v>
+        <v>620.7716666666663</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>623</v>
+        <v>622.9</v>
       </c>
       <c r="C47" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D47" t="n">
-        <v>623</v>
+        <v>622.9</v>
       </c>
       <c r="E47" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F47" t="n">
-        <v>437.1983</v>
+        <v>1141.6304</v>
       </c>
       <c r="G47" t="n">
-        <v>620.2566666666663</v>
+        <v>620.4899999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>626.7</v>
+        <v>623</v>
       </c>
       <c r="C48" t="n">
-        <v>637.9</v>
+        <v>623</v>
       </c>
       <c r="D48" t="n">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="E48" t="n">
-        <v>626.7</v>
+        <v>623</v>
       </c>
       <c r="F48" t="n">
-        <v>853.052</v>
+        <v>437.1983</v>
       </c>
       <c r="G48" t="n">
-        <v>620.2883333333331</v>
+        <v>620.2566666666663</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>637</v>
+        <v>626.7</v>
       </c>
       <c r="C49" t="n">
-        <v>645</v>
+        <v>637.9</v>
       </c>
       <c r="D49" t="n">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E49" t="n">
-        <v>637</v>
+        <v>626.7</v>
       </c>
       <c r="F49" t="n">
-        <v>1712.0453</v>
+        <v>853.052</v>
       </c>
       <c r="G49" t="n">
-        <v>620.4216666666664</v>
+        <v>620.2883333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2129,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>644.9</v>
+        <v>637</v>
       </c>
       <c r="C50" t="n">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D50" t="n">
-        <v>644.9</v>
+        <v>645</v>
       </c>
       <c r="E50" t="n">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F50" t="n">
-        <v>1312.7</v>
+        <v>1712.0453</v>
       </c>
       <c r="G50" t="n">
-        <v>620.438333333333</v>
+        <v>620.4216666666664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,19 +2148,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>643.8</v>
+        <v>644.9</v>
       </c>
       <c r="C51" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D51" t="n">
-        <v>644.7</v>
+        <v>644.9</v>
       </c>
       <c r="E51" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F51" t="n">
-        <v>5797.3301</v>
+        <v>1312.7</v>
       </c>
       <c r="G51" t="n">
         <v>620.438333333333</v>
@@ -2199,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="C52" t="n">
         <v>638</v>
       </c>
-      <c r="C52" t="n">
-        <v>642</v>
-      </c>
       <c r="D52" t="n">
-        <v>642</v>
+        <v>644.7</v>
       </c>
       <c r="E52" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F52" t="n">
-        <v>4727.8033</v>
+        <v>5797.3301</v>
       </c>
       <c r="G52" t="n">
-        <v>620.5383333333331</v>
+        <v>620.438333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2234,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>638</v>
+      </c>
+      <c r="C53" t="n">
         <v>642</v>
-      </c>
-      <c r="C53" t="n">
-        <v>639.3</v>
       </c>
       <c r="D53" t="n">
         <v>642</v>
       </c>
       <c r="E53" t="n">
-        <v>639.3</v>
+        <v>638</v>
       </c>
       <c r="F53" t="n">
-        <v>4140.3706</v>
+        <v>4727.8033</v>
       </c>
       <c r="G53" t="n">
-        <v>620.5599999999997</v>
+        <v>620.5383333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2269,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>639.2</v>
+        <v>642</v>
       </c>
       <c r="C54" t="n">
-        <v>638.1</v>
+        <v>639.3</v>
       </c>
       <c r="D54" t="n">
-        <v>641.9</v>
+        <v>642</v>
       </c>
       <c r="E54" t="n">
-        <v>638</v>
+        <v>639.3</v>
       </c>
       <c r="F54" t="n">
-        <v>4738.0845</v>
+        <v>4140.3706</v>
       </c>
       <c r="G54" t="n">
-        <v>620.5949999999997</v>
+        <v>620.5599999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2304,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>638.2</v>
+        <v>639.2</v>
       </c>
       <c r="C55" t="n">
-        <v>641.9</v>
+        <v>638.1</v>
       </c>
       <c r="D55" t="n">
         <v>641.9</v>
       </c>
       <c r="E55" t="n">
-        <v>638.2</v>
+        <v>638</v>
       </c>
       <c r="F55" t="n">
-        <v>2797.3199</v>
+        <v>4738.0845</v>
       </c>
       <c r="G55" t="n">
-        <v>620.6599999999997</v>
+        <v>620.5949999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2339,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>638.3</v>
+        <v>638.2</v>
       </c>
       <c r="C56" t="n">
-        <v>638.3</v>
+        <v>641.9</v>
       </c>
       <c r="D56" t="n">
-        <v>638.3</v>
+        <v>641.9</v>
       </c>
       <c r="E56" t="n">
-        <v>638.3</v>
+        <v>638.2</v>
       </c>
       <c r="F56" t="n">
-        <v>138.4125</v>
+        <v>2797.3199</v>
       </c>
       <c r="G56" t="n">
-        <v>620.6649999999997</v>
+        <v>620.6599999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2374,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>638.4</v>
+        <v>638.3</v>
       </c>
       <c r="C57" t="n">
         <v>638.3</v>
       </c>
       <c r="D57" t="n">
-        <v>638.4</v>
+        <v>638.3</v>
       </c>
       <c r="E57" t="n">
         <v>638.3</v>
       </c>
       <c r="F57" t="n">
-        <v>1423.6993</v>
+        <v>138.4125</v>
       </c>
       <c r="G57" t="n">
-        <v>620.7033333333331</v>
+        <v>620.6649999999997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2409,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>635.2</v>
+        <v>638.4</v>
       </c>
       <c r="C58" t="n">
-        <v>635.2</v>
+        <v>638.3</v>
       </c>
       <c r="D58" t="n">
-        <v>635.2</v>
+        <v>638.4</v>
       </c>
       <c r="E58" t="n">
-        <v>635.2</v>
+        <v>638.3</v>
       </c>
       <c r="F58" t="n">
-        <v>879.4138</v>
+        <v>1423.6993</v>
       </c>
       <c r="G58" t="n">
-        <v>620.7066666666665</v>
+        <v>620.7033333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2447,19 +2431,19 @@
         <v>635.2</v>
       </c>
       <c r="C59" t="n">
-        <v>641</v>
+        <v>635.2</v>
       </c>
       <c r="D59" t="n">
-        <v>641</v>
+        <v>635.2</v>
       </c>
       <c r="E59" t="n">
-        <v>633.9</v>
+        <v>635.2</v>
       </c>
       <c r="F59" t="n">
-        <v>2641</v>
+        <v>879.4138</v>
       </c>
       <c r="G59" t="n">
-        <v>620.8066666666665</v>
+        <v>620.7066666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>636.8</v>
+        <v>635.2</v>
       </c>
       <c r="C60" t="n">
-        <v>639.9</v>
+        <v>641</v>
       </c>
       <c r="D60" t="n">
-        <v>640.9</v>
+        <v>641</v>
       </c>
       <c r="E60" t="n">
-        <v>636.8</v>
+        <v>633.9</v>
       </c>
       <c r="F60" t="n">
-        <v>8268.0669</v>
+        <v>2641</v>
       </c>
       <c r="G60" t="n">
-        <v>620.9533333333331</v>
+        <v>620.8066666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2514,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>640</v>
+        <v>636.8</v>
       </c>
       <c r="C61" t="n">
-        <v>639</v>
+        <v>639.9</v>
       </c>
       <c r="D61" t="n">
         <v>640.9</v>
       </c>
       <c r="E61" t="n">
-        <v>639</v>
+        <v>636.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4068.743</v>
+        <v>8268.0669</v>
       </c>
       <c r="G61" t="n">
-        <v>621.2316666666665</v>
+        <v>620.9533333333331</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2552,19 +2536,19 @@
         <v>640</v>
       </c>
       <c r="C62" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D62" t="n">
-        <v>640</v>
+        <v>640.9</v>
       </c>
       <c r="E62" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F62" t="n">
-        <v>94.7</v>
+        <v>4068.743</v>
       </c>
       <c r="G62" t="n">
-        <v>621.468333333333</v>
+        <v>621.2316666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2584,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C63" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D63" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E63" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F63" t="n">
-        <v>5718.4517</v>
+        <v>94.7</v>
       </c>
       <c r="G63" t="n">
-        <v>621.7683333333331</v>
+        <v>621.468333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2631,10 +2615,10 @@
         <v>639</v>
       </c>
       <c r="F64" t="n">
-        <v>177.0068</v>
+        <v>5718.4517</v>
       </c>
       <c r="G64" t="n">
-        <v>622.0966666666664</v>
+        <v>621.7683333333331</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2666,10 +2650,10 @@
         <v>639</v>
       </c>
       <c r="F65" t="n">
-        <v>166.0722</v>
+        <v>177.0068</v>
       </c>
       <c r="G65" t="n">
-        <v>622.4499999999996</v>
+        <v>622.0966666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2701,10 +2685,10 @@
         <v>639</v>
       </c>
       <c r="F66" t="n">
-        <v>5652.5657</v>
+        <v>166.0722</v>
       </c>
       <c r="G66" t="n">
-        <v>622.8466666666664</v>
+        <v>622.4499999999996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2727,19 +2711,19 @@
         <v>639</v>
       </c>
       <c r="C67" t="n">
-        <v>641.8</v>
+        <v>639</v>
       </c>
       <c r="D67" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E67" t="n">
         <v>639</v>
       </c>
       <c r="F67" t="n">
-        <v>7894.1179</v>
+        <v>5652.5657</v>
       </c>
       <c r="G67" t="n">
-        <v>623.2899999999997</v>
+        <v>622.8466666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C68" t="n">
-        <v>640.9</v>
+        <v>641.8</v>
       </c>
       <c r="D68" t="n">
-        <v>640.9</v>
+        <v>642</v>
       </c>
       <c r="E68" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F68" t="n">
-        <v>3.8818</v>
+        <v>7894.1179</v>
       </c>
       <c r="G68" t="n">
-        <v>623.6899999999998</v>
+        <v>623.2899999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>635.9</v>
+        <v>637</v>
       </c>
       <c r="C69" t="n">
-        <v>634.8</v>
+        <v>640.9</v>
       </c>
       <c r="D69" t="n">
-        <v>635.9</v>
+        <v>640.9</v>
       </c>
       <c r="E69" t="n">
-        <v>634.8</v>
+        <v>637</v>
       </c>
       <c r="F69" t="n">
-        <v>2410</v>
+        <v>3.8818</v>
       </c>
       <c r="G69" t="n">
-        <v>624.0433333333332</v>
+        <v>623.6899999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>634</v>
+        <v>635.9</v>
       </c>
       <c r="C70" t="n">
-        <v>631.6</v>
+        <v>634.8</v>
       </c>
       <c r="D70" t="n">
-        <v>634</v>
+        <v>635.9</v>
       </c>
       <c r="E70" t="n">
-        <v>631.6</v>
+        <v>634.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1494.6</v>
+        <v>2410</v>
       </c>
       <c r="G70" t="n">
-        <v>624.3983333333331</v>
+        <v>624.0433333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>631.6</v>
+        <v>634</v>
       </c>
       <c r="C71" t="n">
         <v>631.6</v>
       </c>
       <c r="D71" t="n">
-        <v>631.6</v>
+        <v>634</v>
       </c>
       <c r="E71" t="n">
         <v>631.6</v>
       </c>
       <c r="F71" t="n">
-        <v>1040</v>
+        <v>1494.6</v>
       </c>
       <c r="G71" t="n">
-        <v>624.753333333333</v>
+        <v>624.3983333333331</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2895,10 @@
         <v>631.6</v>
       </c>
       <c r="F72" t="n">
-        <v>12.0092</v>
+        <v>1040</v>
       </c>
       <c r="G72" t="n">
-        <v>625.108333333333</v>
+        <v>624.753333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>633</v>
+        <v>631.6</v>
       </c>
       <c r="C73" t="n">
-        <v>633</v>
+        <v>631.6</v>
       </c>
       <c r="D73" t="n">
-        <v>633</v>
+        <v>631.6</v>
       </c>
       <c r="E73" t="n">
-        <v>633</v>
+        <v>631.6</v>
       </c>
       <c r="F73" t="n">
-        <v>7.89889415</v>
+        <v>12.0092</v>
       </c>
       <c r="G73" t="n">
-        <v>625.448333333333</v>
+        <v>625.108333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2981,10 +2965,10 @@
         <v>633</v>
       </c>
       <c r="F74" t="n">
-        <v>520.70810585</v>
+        <v>7.89889415</v>
       </c>
       <c r="G74" t="n">
-        <v>625.8066666666663</v>
+        <v>625.448333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3007,19 +2991,19 @@
         <v>633</v>
       </c>
       <c r="C75" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="D75" t="n">
         <v>633</v>
       </c>
       <c r="E75" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="F75" t="n">
-        <v>280</v>
+        <v>520.70810585</v>
       </c>
       <c r="G75" t="n">
-        <v>626.0833333333329</v>
+        <v>625.8066666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3042,19 +3026,19 @@
         <v>633</v>
       </c>
       <c r="C76" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="D76" t="n">
         <v>633</v>
       </c>
       <c r="E76" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="F76" t="n">
-        <v>16.7977883</v>
+        <v>280</v>
       </c>
       <c r="G76" t="n">
-        <v>626.4249999999996</v>
+        <v>626.0833333333329</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="C77" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="D77" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="E77" t="n">
-        <v>629.1</v>
+        <v>633</v>
       </c>
       <c r="F77" t="n">
-        <v>58.8419</v>
+        <v>16.7977883</v>
       </c>
       <c r="G77" t="n">
-        <v>626.7016666666663</v>
+        <v>626.4249999999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="C78" t="n">
-        <v>634</v>
+        <v>629.1</v>
       </c>
       <c r="D78" t="n">
-        <v>634</v>
+        <v>629.1</v>
       </c>
       <c r="E78" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="F78" t="n">
-        <v>2510</v>
+        <v>58.8419</v>
       </c>
       <c r="G78" t="n">
-        <v>627.0599999999996</v>
+        <v>626.7016666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>629.7</v>
+        <v>633</v>
       </c>
       <c r="C79" t="n">
-        <v>629.7</v>
+        <v>634</v>
       </c>
       <c r="D79" t="n">
-        <v>629.7</v>
+        <v>634</v>
       </c>
       <c r="E79" t="n">
-        <v>629.7</v>
+        <v>633</v>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>2510</v>
       </c>
       <c r="G79" t="n">
-        <v>627.3633333333329</v>
+        <v>627.0599999999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,31 +3163,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>633</v>
+        <v>629.7</v>
       </c>
       <c r="C80" t="n">
-        <v>633</v>
+        <v>629.7</v>
       </c>
       <c r="D80" t="n">
-        <v>633</v>
+        <v>629.7</v>
       </c>
       <c r="E80" t="n">
-        <v>633</v>
+        <v>629.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>627.7416666666662</v>
+        <v>627.3633333333329</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>634</v>
+      </c>
+      <c r="K80" t="n">
+        <v>634</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3214,32 +3202,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>630.5</v>
+        <v>633</v>
       </c>
       <c r="C81" t="n">
-        <v>630.5</v>
+        <v>633</v>
       </c>
       <c r="D81" t="n">
-        <v>630.5</v>
+        <v>633</v>
       </c>
       <c r="E81" t="n">
-        <v>630.5</v>
+        <v>633</v>
       </c>
       <c r="F81" t="n">
-        <v>502.5274</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>628.0583333333328</v>
+        <v>627.7416666666662</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>634</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3249,32 +3245,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>629.1</v>
+        <v>630.5</v>
       </c>
       <c r="C82" t="n">
-        <v>629.1</v>
+        <v>630.5</v>
       </c>
       <c r="D82" t="n">
-        <v>629.1</v>
+        <v>630.5</v>
       </c>
       <c r="E82" t="n">
-        <v>629.1</v>
+        <v>630.5</v>
       </c>
       <c r="F82" t="n">
-        <v>294</v>
+        <v>502.5274</v>
       </c>
       <c r="G82" t="n">
-        <v>628.3366666666661</v>
+        <v>628.0583333333328</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>633</v>
+      </c>
+      <c r="K82" t="n">
+        <v>634</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3287,19 +3291,19 @@
         <v>629.1</v>
       </c>
       <c r="C83" t="n">
-        <v>628</v>
+        <v>629.1</v>
       </c>
       <c r="D83" t="n">
         <v>629.1</v>
       </c>
       <c r="E83" t="n">
-        <v>628</v>
+        <v>629.1</v>
       </c>
       <c r="F83" t="n">
-        <v>706</v>
+        <v>294</v>
       </c>
       <c r="G83" t="n">
-        <v>628.5949999999995</v>
+        <v>628.3366666666661</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="C84" t="n">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D84" t="n">
-        <v>633</v>
+        <v>629.1</v>
       </c>
       <c r="E84" t="n">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8414</v>
+        <v>706</v>
       </c>
       <c r="G84" t="n">
-        <v>628.9366666666662</v>
+        <v>628.5949999999995</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3366,10 +3370,10 @@
         <v>633</v>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>0.8414</v>
       </c>
       <c r="G85" t="n">
-        <v>629.2599999999995</v>
+        <v>628.9366666666662</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3389,7 +3393,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C86" t="n">
         <v>633</v>
@@ -3398,13 +3402,13 @@
         <v>633</v>
       </c>
       <c r="E86" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F86" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>629.5833333333328</v>
+        <v>629.2599999999995</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>630.6</v>
+        <v>632</v>
       </c>
       <c r="C87" t="n">
-        <v>630.6</v>
+        <v>633</v>
       </c>
       <c r="D87" t="n">
-        <v>630.6</v>
+        <v>633</v>
       </c>
       <c r="E87" t="n">
-        <v>630.6</v>
+        <v>632</v>
       </c>
       <c r="F87" t="n">
-        <v>275.829</v>
+        <v>570</v>
       </c>
       <c r="G87" t="n">
-        <v>629.8666666666662</v>
+        <v>629.5833333333328</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3459,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>629.5</v>
+        <v>630.6</v>
       </c>
       <c r="C88" t="n">
-        <v>629.5</v>
+        <v>630.6</v>
       </c>
       <c r="D88" t="n">
-        <v>629.5</v>
+        <v>630.6</v>
       </c>
       <c r="E88" t="n">
-        <v>629.5</v>
+        <v>630.6</v>
       </c>
       <c r="F88" t="n">
-        <v>256.6503</v>
+        <v>275.829</v>
       </c>
       <c r="G88" t="n">
-        <v>630.1316666666662</v>
+        <v>629.8666666666662</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>628.4</v>
+        <v>629.5</v>
       </c>
       <c r="C89" t="n">
-        <v>628.4</v>
+        <v>629.5</v>
       </c>
       <c r="D89" t="n">
-        <v>628.4</v>
+        <v>629.5</v>
       </c>
       <c r="E89" t="n">
-        <v>628.4</v>
+        <v>629.5</v>
       </c>
       <c r="F89" t="n">
         <v>256.6503</v>
       </c>
       <c r="G89" t="n">
-        <v>630.3199999999996</v>
+        <v>630.1316666666662</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>630.6</v>
+        <v>628.4</v>
       </c>
       <c r="C90" t="n">
-        <v>633</v>
+        <v>628.4</v>
       </c>
       <c r="D90" t="n">
-        <v>633</v>
+        <v>628.4</v>
       </c>
       <c r="E90" t="n">
-        <v>630.6</v>
+        <v>628.4</v>
       </c>
       <c r="F90" t="n">
-        <v>450</v>
+        <v>256.6503</v>
       </c>
       <c r="G90" t="n">
-        <v>630.5866666666662</v>
+        <v>630.3199999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3564,7 +3568,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>632</v>
+        <v>630.6</v>
       </c>
       <c r="C91" t="n">
         <v>633</v>
@@ -3573,13 +3577,13 @@
         <v>633</v>
       </c>
       <c r="E91" t="n">
-        <v>632</v>
+        <v>630.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1700</v>
+        <v>450</v>
       </c>
       <c r="G91" t="n">
-        <v>630.8533333333329</v>
+        <v>630.5866666666662</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3599,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>632</v>
+      </c>
+      <c r="C92" t="n">
         <v>633</v>
       </c>
-      <c r="C92" t="n">
-        <v>638.4</v>
-      </c>
       <c r="D92" t="n">
-        <v>638.4</v>
+        <v>633</v>
       </c>
       <c r="E92" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F92" t="n">
-        <v>9942.1422</v>
+        <v>1700</v>
       </c>
       <c r="G92" t="n">
-        <v>631.248333333333</v>
+        <v>630.8533333333329</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3634,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>638.4</v>
+        <v>633</v>
       </c>
       <c r="C93" t="n">
         <v>638.4</v>
@@ -3643,13 +3647,13 @@
         <v>638.4</v>
       </c>
       <c r="E93" t="n">
-        <v>638.4</v>
+        <v>633</v>
       </c>
       <c r="F93" t="n">
-        <v>15.6251</v>
+        <v>9942.1422</v>
       </c>
       <c r="G93" t="n">
-        <v>631.6649999999996</v>
+        <v>631.248333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3681,10 +3685,10 @@
         <v>638.4</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>15.6251</v>
       </c>
       <c r="G94" t="n">
-        <v>632.0199999999998</v>
+        <v>631.6649999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3708,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>634</v>
+        <v>638.4</v>
       </c>
       <c r="C95" t="n">
-        <v>632.8</v>
+        <v>638.4</v>
       </c>
       <c r="D95" t="n">
-        <v>634</v>
+        <v>638.4</v>
       </c>
       <c r="E95" t="n">
-        <v>632.8</v>
+        <v>638.4</v>
       </c>
       <c r="F95" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="G95" t="n">
-        <v>632.2816666666664</v>
+        <v>632.0199999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C96" t="n">
-        <v>629.2</v>
+        <v>632.8</v>
       </c>
       <c r="D96" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E96" t="n">
-        <v>629.2</v>
+        <v>632.8</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="G96" t="n">
-        <v>632.4566666666665</v>
+        <v>632.2816666666664</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>629.3</v>
+        <v>633</v>
       </c>
       <c r="C97" t="n">
-        <v>629.3</v>
+        <v>629.2</v>
       </c>
       <c r="D97" t="n">
-        <v>629.3</v>
+        <v>633</v>
       </c>
       <c r="E97" t="n">
-        <v>629.3</v>
+        <v>629.2</v>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>632.6316666666664</v>
+        <v>632.4566666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>630.3</v>
+        <v>629.3</v>
       </c>
       <c r="C98" t="n">
-        <v>621.2</v>
+        <v>629.3</v>
       </c>
       <c r="D98" t="n">
-        <v>630.3</v>
+        <v>629.3</v>
       </c>
       <c r="E98" t="n">
-        <v>621.2</v>
+        <v>629.3</v>
       </c>
       <c r="F98" t="n">
-        <v>8023.9953</v>
+        <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>632.7349999999998</v>
+        <v>632.6316666666664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>625.9</v>
+        <v>630.3</v>
       </c>
       <c r="C99" t="n">
-        <v>625.8</v>
+        <v>621.2</v>
       </c>
       <c r="D99" t="n">
-        <v>625.9</v>
+        <v>630.3</v>
       </c>
       <c r="E99" t="n">
-        <v>625.7</v>
+        <v>621.2</v>
       </c>
       <c r="F99" t="n">
-        <v>2905.45672032</v>
+        <v>8023.9953</v>
       </c>
       <c r="G99" t="n">
-        <v>632.9149999999997</v>
+        <v>632.7349999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>625.8</v>
+        <v>625.9</v>
       </c>
       <c r="C100" t="n">
         <v>625.8</v>
       </c>
       <c r="D100" t="n">
-        <v>625.8</v>
+        <v>625.9</v>
       </c>
       <c r="E100" t="n">
-        <v>625.8</v>
+        <v>625.7</v>
       </c>
       <c r="F100" t="n">
-        <v>2781.5352</v>
+        <v>2905.45672032</v>
       </c>
       <c r="G100" t="n">
-        <v>633.0333333333332</v>
+        <v>632.9149999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3914,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>621.5</v>
+        <v>625.8</v>
       </c>
       <c r="C101" t="n">
-        <v>621.4</v>
+        <v>625.8</v>
       </c>
       <c r="D101" t="n">
-        <v>621.5</v>
+        <v>625.8</v>
       </c>
       <c r="E101" t="n">
-        <v>621.4</v>
+        <v>625.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1781</v>
+        <v>2781.5352</v>
       </c>
       <c r="G101" t="n">
-        <v>633.0733333333333</v>
+        <v>633.0333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>625.9</v>
+        <v>621.5</v>
       </c>
       <c r="C102" t="n">
-        <v>621.2</v>
+        <v>621.4</v>
       </c>
       <c r="D102" t="n">
-        <v>625.9</v>
+        <v>621.5</v>
       </c>
       <c r="E102" t="n">
-        <v>621.2</v>
+        <v>621.4</v>
       </c>
       <c r="F102" t="n">
-        <v>1490</v>
+        <v>1781</v>
       </c>
       <c r="G102" t="n">
-        <v>633.1099999999999</v>
+        <v>633.0733333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +3988,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>621.3</v>
+        <v>625.9</v>
       </c>
       <c r="C103" t="n">
-        <v>624.9</v>
+        <v>621.2</v>
       </c>
       <c r="D103" t="n">
-        <v>624.9</v>
+        <v>625.9</v>
       </c>
       <c r="E103" t="n">
-        <v>621</v>
+        <v>621.2</v>
       </c>
       <c r="F103" t="n">
-        <v>6538.0574</v>
+        <v>1490</v>
       </c>
       <c r="G103" t="n">
-        <v>633.1266666666666</v>
+        <v>633.1099999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4019,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>621</v>
+        <v>621.3</v>
       </c>
       <c r="C104" t="n">
-        <v>621</v>
+        <v>624.9</v>
       </c>
       <c r="D104" t="n">
-        <v>621</v>
+        <v>624.9</v>
       </c>
       <c r="E104" t="n">
         <v>621</v>
       </c>
       <c r="F104" t="n">
-        <v>4601.079</v>
+        <v>6538.0574</v>
       </c>
       <c r="G104" t="n">
-        <v>633.1916666666665</v>
+        <v>633.1266666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>620.9</v>
+        <v>621</v>
       </c>
       <c r="C105" t="n">
-        <v>620.9</v>
+        <v>621</v>
       </c>
       <c r="D105" t="n">
-        <v>620.9</v>
+        <v>621</v>
       </c>
       <c r="E105" t="n">
-        <v>620.9</v>
+        <v>621</v>
       </c>
       <c r="F105" t="n">
-        <v>1660.7261</v>
+        <v>4601.079</v>
       </c>
       <c r="G105" t="n">
-        <v>633.1483333333332</v>
+        <v>633.1916666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,19 +4093,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>621</v>
+        <v>620.9</v>
       </c>
       <c r="C106" t="n">
-        <v>621</v>
+        <v>620.9</v>
       </c>
       <c r="D106" t="n">
-        <v>621</v>
+        <v>620.9</v>
       </c>
       <c r="E106" t="n">
-        <v>621</v>
+        <v>620.9</v>
       </c>
       <c r="F106" t="n">
-        <v>2742.8895</v>
+        <v>1660.7261</v>
       </c>
       <c r="G106" t="n">
         <v>633.1483333333332</v>
@@ -4136,10 +4140,10 @@
         <v>621</v>
       </c>
       <c r="F107" t="n">
-        <v>2238.8021</v>
+        <v>2742.8895</v>
       </c>
       <c r="G107" t="n">
-        <v>633.1149999999999</v>
+        <v>633.1483333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4171,19 +4175,23 @@
         <v>621</v>
       </c>
       <c r="F108" t="n">
-        <v>91.0209</v>
+        <v>2238.8021</v>
       </c>
       <c r="G108" t="n">
-        <v>632.8333333333333</v>
+        <v>633.1149999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>621</v>
+      </c>
+      <c r="K108" t="n">
+        <v>621</v>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
@@ -4194,32 +4202,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>625.5</v>
+        <v>621</v>
       </c>
       <c r="C109" t="n">
-        <v>625.5</v>
+        <v>621</v>
       </c>
       <c r="D109" t="n">
-        <v>625.5</v>
+        <v>621</v>
       </c>
       <c r="E109" t="n">
-        <v>625.5</v>
+        <v>621</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>91.0209</v>
       </c>
       <c r="G109" t="n">
-        <v>632.5083333333332</v>
+        <v>632.8333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>621</v>
+      </c>
+      <c r="K109" t="n">
+        <v>621</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,32 +4245,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>621.6</v>
+        <v>625.5</v>
       </c>
       <c r="C110" t="n">
-        <v>622.7</v>
+        <v>625.5</v>
       </c>
       <c r="D110" t="n">
-        <v>622.7</v>
+        <v>625.5</v>
       </c>
       <c r="E110" t="n">
-        <v>621.6</v>
+        <v>625.5</v>
       </c>
       <c r="F110" t="n">
-        <v>927.7948</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>632.2366666666665</v>
+        <v>632.5083333333332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>621</v>
+      </c>
+      <c r="K110" t="n">
+        <v>621</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4264,32 +4288,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>625</v>
+        <v>621.6</v>
       </c>
       <c r="C111" t="n">
-        <v>619.3</v>
+        <v>622.7</v>
       </c>
       <c r="D111" t="n">
-        <v>625</v>
+        <v>622.7</v>
       </c>
       <c r="E111" t="n">
-        <v>619.3</v>
+        <v>621.6</v>
       </c>
       <c r="F111" t="n">
-        <v>235.3314</v>
+        <v>927.7948</v>
       </c>
       <c r="G111" t="n">
-        <v>631.9249999999998</v>
+        <v>632.2366666666665</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>621</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4331,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>619.1</v>
+        <v>625</v>
       </c>
       <c r="C112" t="n">
-        <v>628.7</v>
+        <v>619.3</v>
       </c>
       <c r="D112" t="n">
-        <v>628.7</v>
+        <v>625</v>
       </c>
       <c r="E112" t="n">
-        <v>617.1</v>
+        <v>619.3</v>
       </c>
       <c r="F112" t="n">
-        <v>1831</v>
+        <v>235.3314</v>
       </c>
       <c r="G112" t="n">
-        <v>631.7033333333331</v>
+        <v>631.9249999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>621</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4372,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>621</v>
+        <v>619.1</v>
       </c>
       <c r="C113" t="n">
-        <v>621.6</v>
+        <v>628.7</v>
       </c>
       <c r="D113" t="n">
-        <v>622.6</v>
+        <v>628.7</v>
       </c>
       <c r="E113" t="n">
-        <v>621</v>
+        <v>617.1</v>
       </c>
       <c r="F113" t="n">
-        <v>1344.649</v>
+        <v>1831</v>
       </c>
       <c r="G113" t="n">
-        <v>631.4083333333331</v>
+        <v>631.7033333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,8 +4396,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>621</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4372,19 +4416,19 @@
         <v>621</v>
       </c>
       <c r="C114" t="n">
-        <v>621</v>
+        <v>621.6</v>
       </c>
       <c r="D114" t="n">
-        <v>621</v>
+        <v>622.6</v>
       </c>
       <c r="E114" t="n">
         <v>621</v>
       </c>
       <c r="F114" t="n">
-        <v>63.4</v>
+        <v>1344.649</v>
       </c>
       <c r="G114" t="n">
-        <v>631.1233333333331</v>
+        <v>631.4083333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>621</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4416,10 +4466,10 @@
         <v>621</v>
       </c>
       <c r="F115" t="n">
-        <v>104.1399</v>
+        <v>63.4</v>
       </c>
       <c r="G115" t="n">
-        <v>630.7749999999997</v>
+        <v>631.1233333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,8 +4478,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>621</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4439,22 +4495,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C116" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D116" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E116" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F116" t="n">
-        <v>513.9</v>
+        <v>104.1399</v>
       </c>
       <c r="G116" t="n">
-        <v>630.4699999999997</v>
+        <v>630.7749999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,8 +4519,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>621</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4474,32 +4536,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C117" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D117" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E117" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="F117" t="n">
-        <v>11531.4782</v>
+        <v>513.9</v>
       </c>
       <c r="G117" t="n">
-        <v>630.148333333333</v>
+        <v>630.4699999999997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>621</v>
+      </c>
+      <c r="K117" t="n">
+        <v>621</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +4579,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C118" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D118" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E118" t="n">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F118" t="n">
-        <v>86.8943</v>
+        <v>11531.4782</v>
       </c>
       <c r="G118" t="n">
-        <v>629.8449999999997</v>
+        <v>630.148333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>621</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4544,22 +4620,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>615.1</v>
+        <v>617</v>
       </c>
       <c r="C119" t="n">
-        <v>615.1</v>
+        <v>617</v>
       </c>
       <c r="D119" t="n">
-        <v>615.1</v>
+        <v>617</v>
       </c>
       <c r="E119" t="n">
-        <v>615.1</v>
+        <v>617</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8129</v>
+        <v>86.8943</v>
       </c>
       <c r="G119" t="n">
-        <v>629.4133333333331</v>
+        <v>629.8449999999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>621</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4582,19 +4664,19 @@
         <v>615.1</v>
       </c>
       <c r="C120" t="n">
-        <v>613.1</v>
+        <v>615.1</v>
       </c>
       <c r="D120" t="n">
         <v>615.1</v>
       </c>
       <c r="E120" t="n">
-        <v>613.1</v>
+        <v>615.1</v>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>0.8129</v>
       </c>
       <c r="G120" t="n">
-        <v>628.9666666666664</v>
+        <v>629.4133333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,8 +4685,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>621</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4702,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>616</v>
+        <v>615.1</v>
       </c>
       <c r="C121" t="n">
-        <v>617.5</v>
+        <v>613.1</v>
       </c>
       <c r="D121" t="n">
-        <v>617.5</v>
+        <v>615.1</v>
       </c>
       <c r="E121" t="n">
-        <v>616</v>
+        <v>613.1</v>
       </c>
       <c r="F121" t="n">
-        <v>1752.1873</v>
+        <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>628.608333333333</v>
+        <v>628.9666666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>621</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4743,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>617.1</v>
+        <v>616</v>
       </c>
       <c r="C122" t="n">
-        <v>617.1</v>
+        <v>617.5</v>
       </c>
       <c r="D122" t="n">
-        <v>617.1</v>
+        <v>617.5</v>
       </c>
       <c r="E122" t="n">
-        <v>617.1</v>
+        <v>616</v>
       </c>
       <c r="F122" t="n">
-        <v>460</v>
+        <v>1752.1873</v>
       </c>
       <c r="G122" t="n">
-        <v>628.2266666666662</v>
+        <v>628.608333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,8 +4767,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>621</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4784,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>617</v>
+        <v>617.1</v>
       </c>
       <c r="C123" t="n">
-        <v>619</v>
+        <v>617.1</v>
       </c>
       <c r="D123" t="n">
-        <v>619</v>
+        <v>617.1</v>
       </c>
       <c r="E123" t="n">
-        <v>614</v>
+        <v>617.1</v>
       </c>
       <c r="F123" t="n">
-        <v>4071</v>
+        <v>460</v>
       </c>
       <c r="G123" t="n">
-        <v>627.893333333333</v>
+        <v>628.2266666666662</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>621</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,7 +4825,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C124" t="n">
         <v>619</v>
@@ -4728,13 +4834,13 @@
         <v>619</v>
       </c>
       <c r="E124" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F124" t="n">
-        <v>511.8417</v>
+        <v>4071</v>
       </c>
       <c r="G124" t="n">
-        <v>627.5599999999996</v>
+        <v>627.893333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>621</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4766,24 +4878,26 @@
         <v>619</v>
       </c>
       <c r="F125" t="n">
-        <v>1250</v>
+        <v>511.8417</v>
       </c>
       <c r="G125" t="n">
-        <v>627.2266666666662</v>
+        <v>627.5599999999996</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>619</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>619</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
+        <v>621</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4805,26 +4919,24 @@
         <v>619</v>
       </c>
       <c r="F126" t="n">
-        <v>3209.237</v>
+        <v>1250</v>
       </c>
       <c r="G126" t="n">
-        <v>626.893333333333</v>
+        <v>627.2266666666662</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>619</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -4836,38 +4948,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>616.2</v>
+        <v>619</v>
       </c>
       <c r="C127" t="n">
-        <v>614.1</v>
+        <v>619</v>
       </c>
       <c r="D127" t="n">
-        <v>616.2</v>
+        <v>619</v>
       </c>
       <c r="E127" t="n">
-        <v>614.1</v>
+        <v>619</v>
       </c>
       <c r="F127" t="n">
-        <v>990</v>
+        <v>3209.237</v>
       </c>
       <c r="G127" t="n">
-        <v>626.4316666666662</v>
+        <v>626.893333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>619</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -4879,34 +4989,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>614</v>
+        <v>616.2</v>
       </c>
       <c r="C128" t="n">
-        <v>611.4</v>
+        <v>614.1</v>
       </c>
       <c r="D128" t="n">
-        <v>614</v>
+        <v>616.2</v>
       </c>
       <c r="E128" t="n">
-        <v>611.4</v>
+        <v>614.1</v>
       </c>
       <c r="F128" t="n">
-        <v>4908.1109</v>
+        <v>990</v>
       </c>
       <c r="G128" t="n">
-        <v>625.9399999999995</v>
+        <v>626.4316666666662</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>614.1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4922,34 +5030,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>616.9</v>
+        <v>614</v>
       </c>
       <c r="C129" t="n">
-        <v>617</v>
+        <v>611.4</v>
       </c>
       <c r="D129" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E129" t="n">
-        <v>616.9</v>
+        <v>611.4</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>4908.1109</v>
       </c>
       <c r="G129" t="n">
-        <v>625.6433333333329</v>
+        <v>625.9399999999995</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>611.4</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -4965,7 +5071,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>616</v>
+        <v>616.9</v>
       </c>
       <c r="C130" t="n">
         <v>617</v>
@@ -4974,25 +5080,23 @@
         <v>617</v>
       </c>
       <c r="E130" t="n">
-        <v>616</v>
+        <v>616.9</v>
       </c>
       <c r="F130" t="n">
-        <v>2671.4842</v>
+        <v>500</v>
       </c>
       <c r="G130" t="n">
-        <v>625.3999999999995</v>
+        <v>625.6433333333329</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>617</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5008,34 +5112,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C131" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D131" t="n">
-        <v>623.1</v>
+        <v>617</v>
       </c>
       <c r="E131" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F131" t="n">
-        <v>5220.3218</v>
+        <v>2671.4842</v>
       </c>
       <c r="G131" t="n">
-        <v>625.2066666666663</v>
+        <v>625.3999999999995</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>617</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5051,34 +5153,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>624.9</v>
+        <v>623</v>
       </c>
       <c r="C132" t="n">
-        <v>624.9</v>
+        <v>620</v>
       </c>
       <c r="D132" t="n">
-        <v>624.9</v>
+        <v>623.1</v>
       </c>
       <c r="E132" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F132" t="n">
-        <v>5221.3025</v>
+        <v>5220.3218</v>
       </c>
       <c r="G132" t="n">
-        <v>625.0949999999996</v>
+        <v>625.2066666666663</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>620</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5094,34 +5194,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>623</v>
+        <v>624.9</v>
       </c>
       <c r="C133" t="n">
-        <v>620</v>
+        <v>624.9</v>
       </c>
       <c r="D133" t="n">
-        <v>623</v>
+        <v>624.9</v>
       </c>
       <c r="E133" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F133" t="n">
-        <v>263.0407</v>
+        <v>5221.3025</v>
       </c>
       <c r="G133" t="n">
-        <v>624.8783333333329</v>
+        <v>625.0949999999996</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>624.9</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5137,22 +5235,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>626.6</v>
+        <v>623</v>
       </c>
       <c r="C134" t="n">
-        <v>626.6</v>
+        <v>620</v>
       </c>
       <c r="D134" t="n">
-        <v>626.6</v>
+        <v>623</v>
       </c>
       <c r="E134" t="n">
-        <v>626.6</v>
+        <v>620</v>
       </c>
       <c r="F134" t="n">
-        <v>2838.5031</v>
+        <v>263.0407</v>
       </c>
       <c r="G134" t="n">
-        <v>624.7716666666662</v>
+        <v>624.8783333333329</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5162,7 +5260,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5178,22 +5276,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>630.8</v>
+        <v>626.6</v>
       </c>
       <c r="C135" t="n">
-        <v>630.8</v>
+        <v>626.6</v>
       </c>
       <c r="D135" t="n">
-        <v>630.8</v>
+        <v>626.6</v>
       </c>
       <c r="E135" t="n">
-        <v>630.8</v>
+        <v>626.6</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2838.5031</v>
       </c>
       <c r="G135" t="n">
-        <v>624.7999999999996</v>
+        <v>624.7716666666662</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5203,7 +5301,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5219,22 +5317,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>629</v>
+        <v>630.8</v>
       </c>
       <c r="C136" t="n">
-        <v>629</v>
+        <v>630.8</v>
       </c>
       <c r="D136" t="n">
-        <v>629</v>
+        <v>630.8</v>
       </c>
       <c r="E136" t="n">
-        <v>629</v>
+        <v>630.8</v>
       </c>
       <c r="F136" t="n">
-        <v>88.92140000000001</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>624.733333333333</v>
+        <v>624.7999999999996</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5244,7 +5342,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5272,10 +5370,10 @@
         <v>629</v>
       </c>
       <c r="F137" t="n">
-        <v>7.0516</v>
+        <v>88.92140000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>624.7316666666663</v>
+        <v>624.733333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5285,7 +5383,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5304,19 +5402,19 @@
         <v>629</v>
       </c>
       <c r="C138" t="n">
-        <v>625.1</v>
+        <v>629</v>
       </c>
       <c r="D138" t="n">
         <v>629</v>
       </c>
       <c r="E138" t="n">
-        <v>625.1</v>
+        <v>629</v>
       </c>
       <c r="F138" t="n">
-        <v>545</v>
+        <v>7.0516</v>
       </c>
       <c r="G138" t="n">
-        <v>624.5833333333329</v>
+        <v>624.7316666666663</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5326,7 +5424,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5342,22 +5440,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>629</v>
+      </c>
+      <c r="C139" t="n">
         <v>625.1</v>
       </c>
-      <c r="C139" t="n">
-        <v>623</v>
-      </c>
       <c r="D139" t="n">
+        <v>629</v>
+      </c>
+      <c r="E139" t="n">
         <v>625.1</v>
       </c>
-      <c r="E139" t="n">
-        <v>623</v>
-      </c>
       <c r="F139" t="n">
-        <v>5784.7003</v>
+        <v>545</v>
       </c>
       <c r="G139" t="n">
-        <v>624.4716666666664</v>
+        <v>624.5833333333329</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5367,7 +5465,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5383,22 +5481,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="C140" t="n">
         <v>623</v>
       </c>
-      <c r="C140" t="n">
-        <v>621.9</v>
-      </c>
       <c r="D140" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="E140" t="n">
         <v>623</v>
       </c>
-      <c r="E140" t="n">
-        <v>621.9</v>
-      </c>
       <c r="F140" t="n">
-        <v>1000</v>
+        <v>5784.7003</v>
       </c>
       <c r="G140" t="n">
-        <v>624.2866666666664</v>
+        <v>624.4716666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5408,7 +5506,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5424,22 +5522,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>622.1</v>
+        <v>623</v>
       </c>
       <c r="C141" t="n">
-        <v>622.1</v>
+        <v>621.9</v>
       </c>
       <c r="D141" t="n">
-        <v>622.1</v>
+        <v>623</v>
       </c>
       <c r="E141" t="n">
-        <v>622.1</v>
+        <v>621.9</v>
       </c>
       <c r="F141" t="n">
-        <v>96.8614</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>624.1466666666663</v>
+        <v>624.2866666666664</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5449,7 +5547,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5465,22 +5563,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>627.8</v>
+        <v>622.1</v>
       </c>
       <c r="C142" t="n">
-        <v>627.8</v>
+        <v>622.1</v>
       </c>
       <c r="D142" t="n">
-        <v>627.8</v>
+        <v>622.1</v>
       </c>
       <c r="E142" t="n">
-        <v>627.8</v>
+        <v>622.1</v>
       </c>
       <c r="F142" t="n">
-        <v>222.898</v>
+        <v>96.8614</v>
       </c>
       <c r="G142" t="n">
-        <v>624.1249999999998</v>
+        <v>624.1466666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5490,7 +5588,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5506,22 +5604,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>627.9</v>
+        <v>627.8</v>
       </c>
       <c r="C143" t="n">
-        <v>631</v>
+        <v>627.8</v>
       </c>
       <c r="D143" t="n">
-        <v>631</v>
+        <v>627.8</v>
       </c>
       <c r="E143" t="n">
-        <v>627.9</v>
+        <v>627.8</v>
       </c>
       <c r="F143" t="n">
-        <v>1063.3</v>
+        <v>222.898</v>
       </c>
       <c r="G143" t="n">
-        <v>624.1749999999997</v>
+        <v>624.1249999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5531,7 +5629,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5547,22 +5645,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>630.7</v>
+        <v>627.9</v>
       </c>
       <c r="C144" t="n">
-        <v>630.7</v>
+        <v>631</v>
       </c>
       <c r="D144" t="n">
-        <v>630.7</v>
+        <v>631</v>
       </c>
       <c r="E144" t="n">
-        <v>630.7</v>
+        <v>627.9</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7927999999999999</v>
+        <v>1063.3</v>
       </c>
       <c r="G144" t="n">
-        <v>624.1366666666664</v>
+        <v>624.1749999999997</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5572,7 +5670,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5588,22 +5686,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>625</v>
+        <v>630.7</v>
       </c>
       <c r="C145" t="n">
-        <v>625</v>
+        <v>630.7</v>
       </c>
       <c r="D145" t="n">
-        <v>625</v>
+        <v>630.7</v>
       </c>
       <c r="E145" t="n">
-        <v>625</v>
+        <v>630.7</v>
       </c>
       <c r="F145" t="n">
-        <v>240</v>
+        <v>0.7927999999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>624.003333333333</v>
+        <v>624.1366666666664</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5613,7 +5711,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5629,22 +5727,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>629.7</v>
+        <v>625</v>
       </c>
       <c r="C146" t="n">
-        <v>629.7</v>
+        <v>625</v>
       </c>
       <c r="D146" t="n">
-        <v>629.7</v>
+        <v>625</v>
       </c>
       <c r="E146" t="n">
-        <v>629.7</v>
+        <v>625</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7941</v>
+        <v>240</v>
       </c>
       <c r="G146" t="n">
-        <v>623.948333333333</v>
+        <v>624.003333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5654,7 +5752,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5670,19 +5768,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>624</v>
+        <v>629.7</v>
       </c>
       <c r="C147" t="n">
-        <v>630.6</v>
+        <v>629.7</v>
       </c>
       <c r="D147" t="n">
-        <v>630.6</v>
+        <v>629.7</v>
       </c>
       <c r="E147" t="n">
-        <v>622</v>
+        <v>629.7</v>
       </c>
       <c r="F147" t="n">
-        <v>1496.672</v>
+        <v>0.7941</v>
       </c>
       <c r="G147" t="n">
         <v>623.948333333333</v>
@@ -5695,7 +5793,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5711,22 +5809,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>623.1</v>
+        <v>624</v>
       </c>
       <c r="C148" t="n">
-        <v>623.1</v>
+        <v>630.6</v>
       </c>
       <c r="D148" t="n">
-        <v>623.1</v>
+        <v>630.6</v>
       </c>
       <c r="E148" t="n">
-        <v>623.1</v>
+        <v>622</v>
       </c>
       <c r="F148" t="n">
-        <v>323.6</v>
+        <v>1496.672</v>
       </c>
       <c r="G148" t="n">
-        <v>623.8416666666664</v>
+        <v>623.948333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5736,7 +5834,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5752,22 +5850,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>622.2</v>
+        <v>623.1</v>
       </c>
       <c r="C149" t="n">
-        <v>622.2</v>
+        <v>623.1</v>
       </c>
       <c r="D149" t="n">
-        <v>622.2</v>
+        <v>623.1</v>
       </c>
       <c r="E149" t="n">
-        <v>622.2</v>
+        <v>623.1</v>
       </c>
       <c r="F149" t="n">
-        <v>29.3429</v>
+        <v>323.6</v>
       </c>
       <c r="G149" t="n">
-        <v>623.7383333333329</v>
+        <v>623.8416666666664</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5777,7 +5875,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5805,10 +5903,10 @@
         <v>622.2</v>
       </c>
       <c r="F150" t="n">
-        <v>1.1773</v>
+        <v>29.3429</v>
       </c>
       <c r="G150" t="n">
-        <v>623.5583333333328</v>
+        <v>623.7383333333329</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5818,7 +5916,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5846,10 +5944,10 @@
         <v>622.2</v>
       </c>
       <c r="F151" t="n">
-        <v>249.7308</v>
+        <v>1.1773</v>
       </c>
       <c r="G151" t="n">
-        <v>623.3783333333328</v>
+        <v>623.5583333333328</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5859,7 +5957,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5875,22 +5973,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>622.1</v>
+        <v>622.2</v>
       </c>
       <c r="C152" t="n">
-        <v>622.1</v>
+        <v>622.2</v>
       </c>
       <c r="D152" t="n">
-        <v>622.1</v>
+        <v>622.2</v>
       </c>
       <c r="E152" t="n">
-        <v>622.1</v>
+        <v>622.2</v>
       </c>
       <c r="F152" t="n">
-        <v>50</v>
+        <v>249.7308</v>
       </c>
       <c r="G152" t="n">
-        <v>623.1066666666661</v>
+        <v>623.3783333333328</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5900,7 +5998,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5916,22 +6014,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>621</v>
+        <v>622.1</v>
       </c>
       <c r="C153" t="n">
-        <v>619</v>
+        <v>622.1</v>
       </c>
       <c r="D153" t="n">
-        <v>621</v>
+        <v>622.1</v>
       </c>
       <c r="E153" t="n">
-        <v>619</v>
+        <v>622.1</v>
       </c>
       <c r="F153" t="n">
-        <v>3384.3691</v>
+        <v>50</v>
       </c>
       <c r="G153" t="n">
-        <v>622.7833333333327</v>
+        <v>623.1066666666661</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5941,7 +6039,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5957,22 +6055,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C154" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D154" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E154" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F154" t="n">
-        <v>29.683</v>
+        <v>3384.3691</v>
       </c>
       <c r="G154" t="n">
-        <v>622.4433333333327</v>
+        <v>622.7833333333327</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5982,7 +6080,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6010,10 +6108,10 @@
         <v>618</v>
       </c>
       <c r="F155" t="n">
-        <v>809.3473</v>
+        <v>29.683</v>
       </c>
       <c r="G155" t="n">
-        <v>622.196666666666</v>
+        <v>622.4433333333327</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6023,7 +6121,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6051,10 +6149,10 @@
         <v>618</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>809.3473</v>
       </c>
       <c r="G156" t="n">
-        <v>622.0099999999994</v>
+        <v>622.196666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6064,7 +6162,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6092,10 +6190,10 @@
         <v>618</v>
       </c>
       <c r="F157" t="n">
-        <v>2892.9393</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>621.821666666666</v>
+        <v>622.0099999999994</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6105,7 +6203,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6124,19 +6222,19 @@
         <v>618</v>
       </c>
       <c r="C158" t="n">
-        <v>617.3</v>
+        <v>618</v>
       </c>
       <c r="D158" t="n">
         <v>618</v>
       </c>
       <c r="E158" t="n">
-        <v>617.3</v>
+        <v>618</v>
       </c>
       <c r="F158" t="n">
-        <v>1015.8632</v>
+        <v>2892.9393</v>
       </c>
       <c r="G158" t="n">
-        <v>621.7566666666661</v>
+        <v>621.821666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6146,7 +6244,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6162,22 +6260,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>616.3</v>
+        <v>618</v>
       </c>
       <c r="C159" t="n">
-        <v>616.3</v>
+        <v>617.3</v>
       </c>
       <c r="D159" t="n">
-        <v>616.3</v>
+        <v>618</v>
       </c>
       <c r="E159" t="n">
-        <v>616.3</v>
+        <v>617.3</v>
       </c>
       <c r="F159" t="n">
-        <v>3200</v>
+        <v>1015.8632</v>
       </c>
       <c r="G159" t="n">
-        <v>621.5983333333328</v>
+        <v>621.7566666666661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6187,7 +6285,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6203,22 +6301,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>617.3</v>
+        <v>616.3</v>
       </c>
       <c r="C160" t="n">
-        <v>624.6</v>
+        <v>616.3</v>
       </c>
       <c r="D160" t="n">
-        <v>624.6</v>
+        <v>616.3</v>
       </c>
       <c r="E160" t="n">
-        <v>617.3</v>
+        <v>616.3</v>
       </c>
       <c r="F160" t="n">
-        <v>595.42655236</v>
+        <v>3200</v>
       </c>
       <c r="G160" t="n">
-        <v>621.5783333333327</v>
+        <v>621.5983333333328</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6228,7 +6326,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6244,22 +6342,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>623.5</v>
+        <v>617.3</v>
       </c>
       <c r="C161" t="n">
-        <v>623.5</v>
+        <v>624.6</v>
       </c>
       <c r="D161" t="n">
-        <v>623.5</v>
+        <v>624.6</v>
       </c>
       <c r="E161" t="n">
-        <v>623.5</v>
+        <v>617.3</v>
       </c>
       <c r="F161" t="n">
-        <v>2.3876</v>
+        <v>595.42655236</v>
       </c>
       <c r="G161" t="n">
-        <v>621.6133333333327</v>
+        <v>621.5783333333327</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6269,7 +6367,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6285,22 +6383,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>620.2</v>
+        <v>623.5</v>
       </c>
       <c r="C162" t="n">
-        <v>620.2</v>
+        <v>623.5</v>
       </c>
       <c r="D162" t="n">
-        <v>620.2</v>
+        <v>623.5</v>
       </c>
       <c r="E162" t="n">
-        <v>620.2</v>
+        <v>623.5</v>
       </c>
       <c r="F162" t="n">
-        <v>636.6353</v>
+        <v>2.3876</v>
       </c>
       <c r="G162" t="n">
-        <v>621.596666666666</v>
+        <v>621.6133333333327</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6310,7 +6408,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6338,10 +6436,10 @@
         <v>620.2</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>636.6353</v>
       </c>
       <c r="G163" t="n">
-        <v>621.5183333333326</v>
+        <v>621.596666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6351,7 +6449,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6367,22 +6465,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>622.9</v>
+        <v>620.2</v>
       </c>
       <c r="C164" t="n">
-        <v>622.9</v>
+        <v>620.2</v>
       </c>
       <c r="D164" t="n">
-        <v>622.9</v>
+        <v>620.2</v>
       </c>
       <c r="E164" t="n">
-        <v>622.9</v>
+        <v>620.2</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G164" t="n">
-        <v>621.5499999999993</v>
+        <v>621.5183333333326</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6392,7 +6490,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6408,22 +6506,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>623.7</v>
+        <v>622.9</v>
       </c>
       <c r="C165" t="n">
-        <v>623.7</v>
+        <v>622.9</v>
       </c>
       <c r="D165" t="n">
-        <v>623.7</v>
+        <v>622.9</v>
       </c>
       <c r="E165" t="n">
-        <v>623.7</v>
+        <v>622.9</v>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>621.5966666666659</v>
+        <v>621.5499999999993</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6433,7 +6531,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6449,7 +6547,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>622.7</v>
+        <v>623.7</v>
       </c>
       <c r="C166" t="n">
         <v>623.7</v>
@@ -6458,13 +6556,13 @@
         <v>623.7</v>
       </c>
       <c r="E166" t="n">
-        <v>622.7</v>
+        <v>623.7</v>
       </c>
       <c r="F166" t="n">
         <v>80</v>
       </c>
       <c r="G166" t="n">
-        <v>621.6416666666659</v>
+        <v>621.5966666666659</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6474,7 +6572,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6490,22 +6588,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>622</v>
+        <v>622.7</v>
       </c>
       <c r="C167" t="n">
-        <v>622</v>
+        <v>623.7</v>
       </c>
       <c r="D167" t="n">
-        <v>622</v>
+        <v>623.7</v>
       </c>
       <c r="E167" t="n">
-        <v>622</v>
+        <v>622.7</v>
       </c>
       <c r="F167" t="n">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G167" t="n">
-        <v>621.6583333333325</v>
+        <v>621.6416666666659</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6515,7 +6613,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6531,22 +6629,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>624.6</v>
+        <v>622</v>
       </c>
       <c r="C168" t="n">
         <v>622</v>
       </c>
       <c r="D168" t="n">
-        <v>624.6</v>
+        <v>622</v>
       </c>
       <c r="E168" t="n">
         <v>622</v>
       </c>
       <c r="F168" t="n">
-        <v>125</v>
+        <v>624</v>
       </c>
       <c r="G168" t="n">
-        <v>621.6749999999992</v>
+        <v>621.6583333333325</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6556,7 +6654,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6572,22 +6670,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>622</v>
+        <v>624.6</v>
       </c>
       <c r="C169" t="n">
         <v>622</v>
       </c>
       <c r="D169" t="n">
-        <v>622</v>
+        <v>624.6</v>
       </c>
       <c r="E169" t="n">
         <v>622</v>
       </c>
       <c r="F169" t="n">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="G169" t="n">
-        <v>621.6166666666658</v>
+        <v>621.6749999999992</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6597,7 +6695,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6625,10 +6723,10 @@
         <v>622</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5685</v>
+        <v>550</v>
       </c>
       <c r="G170" t="n">
-        <v>621.6049999999992</v>
+        <v>621.6166666666658</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6638,7 +6736,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6654,22 +6752,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>622.9</v>
+        <v>622</v>
       </c>
       <c r="C171" t="n">
-        <v>622.9</v>
+        <v>622</v>
       </c>
       <c r="D171" t="n">
-        <v>622.9</v>
+        <v>622</v>
       </c>
       <c r="E171" t="n">
-        <v>622.9</v>
+        <v>622</v>
       </c>
       <c r="F171" t="n">
-        <v>7.1978</v>
+        <v>0.5685</v>
       </c>
       <c r="G171" t="n">
-        <v>621.6649999999992</v>
+        <v>621.6049999999992</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6679,7 +6777,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6695,22 +6793,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>622</v>
+        <v>622.9</v>
       </c>
       <c r="C172" t="n">
-        <v>619.2</v>
+        <v>622.9</v>
       </c>
       <c r="D172" t="n">
-        <v>622</v>
+        <v>622.9</v>
       </c>
       <c r="E172" t="n">
-        <v>619.2</v>
+        <v>622.9</v>
       </c>
       <c r="F172" t="n">
-        <v>353.7</v>
+        <v>7.1978</v>
       </c>
       <c r="G172" t="n">
-        <v>621.5066666666659</v>
+        <v>621.6649999999992</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6720,7 +6818,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6736,22 +6834,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>624.5</v>
+        <v>622</v>
       </c>
       <c r="C173" t="n">
-        <v>624.5</v>
+        <v>619.2</v>
       </c>
       <c r="D173" t="n">
-        <v>624.5</v>
+        <v>622</v>
       </c>
       <c r="E173" t="n">
-        <v>624.5</v>
+        <v>619.2</v>
       </c>
       <c r="F173" t="n">
-        <v>10.9685</v>
+        <v>353.7</v>
       </c>
       <c r="G173" t="n">
-        <v>621.5549999999992</v>
+        <v>621.5066666666659</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6761,7 +6859,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6777,22 +6875,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>620</v>
+        <v>624.5</v>
       </c>
       <c r="C174" t="n">
-        <v>620</v>
+        <v>624.5</v>
       </c>
       <c r="D174" t="n">
-        <v>620</v>
+        <v>624.5</v>
       </c>
       <c r="E174" t="n">
-        <v>620</v>
+        <v>624.5</v>
       </c>
       <c r="F174" t="n">
-        <v>29</v>
+        <v>10.9685</v>
       </c>
       <c r="G174" t="n">
-        <v>621.5383333333325</v>
+        <v>621.5549999999992</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6802,7 +6900,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6818,22 +6916,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>621.9</v>
+        <v>620</v>
       </c>
       <c r="C175" t="n">
-        <v>621.9</v>
+        <v>620</v>
       </c>
       <c r="D175" t="n">
-        <v>621.9</v>
+        <v>620</v>
       </c>
       <c r="E175" t="n">
-        <v>621.9</v>
+        <v>620</v>
       </c>
       <c r="F175" t="n">
-        <v>1926.8581</v>
+        <v>29</v>
       </c>
       <c r="G175" t="n">
-        <v>621.5533333333326</v>
+        <v>621.5383333333325</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6843,7 +6941,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6871,10 +6969,10 @@
         <v>621.9</v>
       </c>
       <c r="F176" t="n">
-        <v>745.0855</v>
+        <v>1926.8581</v>
       </c>
       <c r="G176" t="n">
-        <v>621.5849999999992</v>
+        <v>621.5533333333326</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6884,7 +6982,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6900,22 +6998,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>622</v>
+        <v>621.9</v>
       </c>
       <c r="C177" t="n">
-        <v>622</v>
+        <v>621.9</v>
       </c>
       <c r="D177" t="n">
-        <v>622</v>
+        <v>621.9</v>
       </c>
       <c r="E177" t="n">
-        <v>622</v>
+        <v>621.9</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>745.0855</v>
       </c>
       <c r="G177" t="n">
-        <v>621.6349999999992</v>
+        <v>621.5849999999992</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6925,7 +7023,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6944,19 +7042,19 @@
         <v>622</v>
       </c>
       <c r="C178" t="n">
-        <v>622.9</v>
+        <v>622</v>
       </c>
       <c r="D178" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E178" t="n">
         <v>622</v>
       </c>
       <c r="F178" t="n">
-        <v>1038.1</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>621.7333333333326</v>
+        <v>621.6349999999992</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6966,7 +7064,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6982,22 +7080,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>622</v>
+      </c>
+      <c r="C179" t="n">
         <v>622.9</v>
       </c>
-      <c r="C179" t="n">
-        <v>624.9</v>
-      </c>
       <c r="D179" t="n">
-        <v>624.9</v>
+        <v>624</v>
       </c>
       <c r="E179" t="n">
         <v>622</v>
       </c>
       <c r="F179" t="n">
-        <v>447.0147</v>
+        <v>1038.1</v>
       </c>
       <c r="G179" t="n">
-        <v>621.896666666666</v>
+        <v>621.7333333333326</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7007,7 +7105,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7023,22 +7121,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="E180" t="n">
         <v>622</v>
       </c>
-      <c r="C180" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>621.5</v>
-      </c>
       <c r="F180" t="n">
-        <v>1914.902</v>
+        <v>447.0147</v>
       </c>
       <c r="G180" t="n">
-        <v>622.1049999999993</v>
+        <v>621.896666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7048,7 +7146,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7064,22 +7162,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>622</v>
+      </c>
+      <c r="C181" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="E181" t="n">
         <v>621.5</v>
       </c>
-      <c r="C181" t="n">
-        <v>618.3</v>
-      </c>
-      <c r="D181" t="n">
-        <v>621.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>618.3</v>
-      </c>
       <c r="F181" t="n">
-        <v>870</v>
+        <v>1914.902</v>
       </c>
       <c r="G181" t="n">
-        <v>622.1183333333327</v>
+        <v>622.1049999999993</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7089,7 +7187,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7097,6 +7195,47 @@
         </is>
       </c>
       <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>618.3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>618.3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>870</v>
+      </c>
+      <c r="G182" t="n">
+        <v>622.1183333333327</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>621</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>227.6548</v>
       </c>
       <c r="G2" t="n">
+        <v>635.4266666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>642.745</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1.6</v>
       </c>
       <c r="G3" t="n">
+        <v>634.6800000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>642.425</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>766.1585</v>
       </c>
       <c r="G4" t="n">
+        <v>633.6800000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>642.0583333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>12887.2915</v>
       </c>
       <c r="G5" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>641.6633333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1274.47</v>
       </c>
       <c r="G6" t="n">
+        <v>631.1533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>641.2433333333335</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2362.873</v>
       </c>
       <c r="G7" t="n">
+        <v>629.6333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>640.7800000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>303.944</v>
       </c>
       <c r="G8" t="n">
+        <v>628.2466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>640.3166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>91.5635</v>
       </c>
       <c r="G9" t="n">
+        <v>626.84</v>
+      </c>
+      <c r="H9" t="n">
         <v>639.7833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1016.6934</v>
       </c>
       <c r="G10" t="n">
+        <v>625.3466666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>639.26</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>7602.9414</v>
       </c>
       <c r="G11" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="H11" t="n">
         <v>638.6983333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>440</v>
       </c>
       <c r="G12" t="n">
+        <v>621.6533333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>638.0550000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>783.771</v>
       </c>
       <c r="G13" t="n">
+        <v>619.9399999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>637.4116666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>200</v>
       </c>
       <c r="G14" t="n">
+        <v>618.4466666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>636.8233333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>330.3</v>
       </c>
       <c r="G15" t="n">
+        <v>616.8799999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>636.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
+        <v>615.6399999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>635.5283333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>614.9866666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>634.9216666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1109.9654</v>
       </c>
       <c r="G18" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H18" t="n">
         <v>634.2633333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>82.1665</v>
       </c>
       <c r="G19" t="n">
+        <v>613.5333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>633.6266666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>115.9999</v>
       </c>
       <c r="G20" t="n">
+        <v>613.0133333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>632.9866666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>383.7523</v>
       </c>
       <c r="G21" t="n">
+        <v>612.5133333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>632.3099999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>116.7</v>
       </c>
       <c r="G22" t="n">
+        <v>612.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>631.6533333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2412.6815</v>
       </c>
       <c r="G23" t="n">
+        <v>612.0799999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>631.2083333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>360</v>
       </c>
       <c r="G24" t="n">
+        <v>611.7866666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>630.5866666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10301.5913</v>
       </c>
       <c r="G25" t="n">
+        <v>611.7133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>629.9783333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3400</v>
       </c>
       <c r="G26" t="n">
+        <v>611.9333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>629.3549999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>320</v>
       </c>
       <c r="G27" t="n">
+        <v>612.1533333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>628.9616666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>611.1353</v>
       </c>
       <c r="G28" t="n">
+        <v>612.3733333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>628.4283333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,25 @@
         <v>22.2241</v>
       </c>
       <c r="G29" t="n">
+        <v>612.4400000000002</v>
+      </c>
+      <c r="H29" t="n">
         <v>628.035</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1521,29 @@
         <v>2110</v>
       </c>
       <c r="G30" t="n">
+        <v>612.8133333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>627.5033333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1567,29 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
+        <v>613.1133333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>627.0966666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1613,29 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>613.4133333333335</v>
+      </c>
+      <c r="H32" t="n">
         <v>626.6033333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>617</v>
+      </c>
+      <c r="L32" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1659,29 @@
         <v>497.0066</v>
       </c>
       <c r="G33" t="n">
+        <v>613.5600000000002</v>
+      </c>
+      <c r="H33" t="n">
         <v>626.0333333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>617</v>
+      </c>
+      <c r="L33" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1705,29 @@
         <v>554.0372</v>
       </c>
       <c r="G34" t="n">
+        <v>613.6200000000002</v>
+      </c>
+      <c r="H34" t="n">
         <v>625.5883333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>614.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1751,29 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>613.9933333333336</v>
+      </c>
+      <c r="H35" t="n">
         <v>625.1966666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>613.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1797,29 @@
         <v>944.7581</v>
       </c>
       <c r="G36" t="n">
+        <v>614.4466666666669</v>
+      </c>
+      <c r="H36" t="n">
         <v>624.6683333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1843,27 @@
         <v>4050.9562</v>
       </c>
       <c r="G37" t="n">
+        <v>614.926666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>624.2666666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1887,27 @@
         <v>1302.7106</v>
       </c>
       <c r="G38" t="n">
+        <v>615.3533333333337</v>
+      </c>
+      <c r="H38" t="n">
         <v>623.7883333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1931,29 @@
         <v>1374.4504</v>
       </c>
       <c r="G39" t="n">
+        <v>615.5200000000003</v>
+      </c>
+      <c r="H39" t="n">
         <v>623.2399999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1977,27 @@
         <v>538.5008</v>
       </c>
       <c r="G40" t="n">
+        <v>615.686666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>622.8233333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2021,29 @@
         <v>1931.5483</v>
       </c>
       <c r="G41" t="n">
+        <v>616.026666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>622.5016666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>615</v>
+      </c>
+      <c r="L41" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2067,27 @@
         <v>169.0507</v>
       </c>
       <c r="G42" t="n">
+        <v>616.386666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>622.2016666666664</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2111,27 @@
         <v>78.94929999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>616.746666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>621.7866666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2155,27 @@
         <v>3965.4425</v>
       </c>
       <c r="G44" t="n">
+        <v>617.4333333333336</v>
+      </c>
+      <c r="H44" t="n">
         <v>621.388333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2199,27 @@
         <v>4384.0063</v>
       </c>
       <c r="G45" t="n">
+        <v>617.4333333333336</v>
+      </c>
+      <c r="H45" t="n">
         <v>621.0416666666663</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2243,27 @@
         <v>2708.9755</v>
       </c>
       <c r="G46" t="n">
+        <v>617.8666666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>620.7716666666663</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2287,27 @@
         <v>1141.6304</v>
       </c>
       <c r="G47" t="n">
+        <v>618.1333333333336</v>
+      </c>
+      <c r="H47" t="n">
         <v>620.4899999999997</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2331,27 @@
         <v>437.1983</v>
       </c>
       <c r="G48" t="n">
+        <v>618.6866666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>620.2566666666663</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2375,27 @@
         <v>853.052</v>
       </c>
       <c r="G49" t="n">
+        <v>620.3200000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>620.2883333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2419,27 @@
         <v>1712.0453</v>
       </c>
       <c r="G50" t="n">
+        <v>622.1800000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>620.4216666666664</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2463,27 @@
         <v>1312.7</v>
       </c>
       <c r="G51" t="n">
+        <v>623.6400000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>620.438333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2507,27 @@
         <v>5797.3301</v>
       </c>
       <c r="G52" t="n">
+        <v>624.9266666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>620.438333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2551,27 @@
         <v>4727.8033</v>
       </c>
       <c r="G53" t="n">
+        <v>626.4733333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>620.5383333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2595,27 @@
         <v>4140.3706</v>
       </c>
       <c r="G54" t="n">
+        <v>628.0933333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>620.5599999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2639,27 @@
         <v>4738.0845</v>
       </c>
       <c r="G55" t="n">
+        <v>629.6333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>620.5949999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2683,27 @@
         <v>2797.3199</v>
       </c>
       <c r="G56" t="n">
+        <v>631.1800000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>620.6599999999997</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2727,27 @@
         <v>138.4125</v>
       </c>
       <c r="G57" t="n">
+        <v>632.4666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>620.6649999999997</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2771,27 @@
         <v>1423.6993</v>
       </c>
       <c r="G58" t="n">
+        <v>633.7533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>620.7033333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2815,27 @@
         <v>879.4138</v>
       </c>
       <c r="G59" t="n">
+        <v>634.5066666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>620.7066666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2859,27 @@
         <v>2641</v>
       </c>
       <c r="G60" t="n">
+        <v>636.1</v>
+      </c>
+      <c r="H60" t="n">
         <v>620.8066666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2903,27 @@
         <v>8268.0669</v>
       </c>
       <c r="G61" t="n">
+        <v>637.1933333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>620.9533333333331</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2947,27 @@
         <v>4068.743</v>
       </c>
       <c r="G62" t="n">
+        <v>638.3933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>621.2316666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2991,27 @@
         <v>94.7</v>
       </c>
       <c r="G63" t="n">
+        <v>639.5266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>621.468333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,19 +3035,28 @@
         <v>5718.4517</v>
       </c>
       <c r="G64" t="n">
+        <v>639.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>621.7683333333331</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
+      <c r="L64" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1.036395045632334</v>
       </c>
     </row>
     <row r="65">
@@ -2653,18 +3079,21 @@
         <v>177.0068</v>
       </c>
       <c r="G65" t="n">
+        <v>639.2</v>
+      </c>
+      <c r="H65" t="n">
         <v>622.0966666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3117,21 @@
         <v>166.0722</v>
       </c>
       <c r="G66" t="n">
+        <v>639.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>622.4499999999996</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3155,21 @@
         <v>5652.5657</v>
       </c>
       <c r="G67" t="n">
+        <v>639.2666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>622.8466666666664</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3193,21 @@
         <v>7894.1179</v>
       </c>
       <c r="G68" t="n">
+        <v>639.2533333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>623.2899999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3231,21 @@
         <v>3.8818</v>
       </c>
       <c r="G69" t="n">
+        <v>639.36</v>
+      </c>
+      <c r="H69" t="n">
         <v>623.6899999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3269,21 @@
         <v>2410</v>
       </c>
       <c r="G70" t="n">
+        <v>639.1399999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>624.0433333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3307,21 @@
         <v>1494.6</v>
       </c>
       <c r="G71" t="n">
+        <v>638.4533333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>624.3983333333331</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3345,21 @@
         <v>1040</v>
       </c>
       <c r="G72" t="n">
+        <v>638.0066666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>624.753333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3383,21 @@
         <v>12.0092</v>
       </c>
       <c r="G73" t="n">
+        <v>637.5600000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>625.108333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3421,21 @@
         <v>7.89889415</v>
       </c>
       <c r="G74" t="n">
+        <v>637.4133333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>625.448333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3459,21 @@
         <v>520.70810585</v>
       </c>
       <c r="G75" t="n">
+        <v>636.88</v>
+      </c>
+      <c r="H75" t="n">
         <v>625.8066666666663</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3497,21 @@
         <v>280</v>
       </c>
       <c r="G76" t="n">
+        <v>636.1600000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>626.0833333333329</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3535,21 @@
         <v>16.7977883</v>
       </c>
       <c r="G77" t="n">
+        <v>635.7600000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>626.4249999999996</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3573,21 @@
         <v>58.8419</v>
       </c>
       <c r="G78" t="n">
+        <v>635.0333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>626.7016666666663</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3611,21 @@
         <v>2510</v>
       </c>
       <c r="G79" t="n">
+        <v>634.7000000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>627.0599999999996</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,22 +3649,21 @@
         <v>30</v>
       </c>
       <c r="G80" t="n">
+        <v>634.0800000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>627.3633333333329</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>634</v>
-      </c>
-      <c r="K80" t="n">
-        <v>634</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3217,26 +3687,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>633.6800000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>627.7416666666662</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>634</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,26 +3725,21 @@
         <v>502.5274</v>
       </c>
       <c r="G82" t="n">
+        <v>633.1133333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>628.0583333333328</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>633</v>
-      </c>
-      <c r="K82" t="n">
-        <v>634</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3763,21 @@
         <v>294</v>
       </c>
       <c r="G83" t="n">
+        <v>632.2666666666669</v>
+      </c>
+      <c r="H83" t="n">
         <v>628.3366666666661</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3801,21 @@
         <v>706</v>
       </c>
       <c r="G84" t="n">
+        <v>631.406666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>628.5949999999995</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3839,21 @@
         <v>0.8414</v>
       </c>
       <c r="G85" t="n">
+        <v>631.286666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>628.9366666666662</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3877,21 @@
         <v>500</v>
       </c>
       <c r="G86" t="n">
+        <v>631.3800000000003</v>
+      </c>
+      <c r="H86" t="n">
         <v>629.2599999999995</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3915,21 @@
         <v>570</v>
       </c>
       <c r="G87" t="n">
+        <v>631.4733333333336</v>
+      </c>
+      <c r="H87" t="n">
         <v>629.5833333333328</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3953,21 @@
         <v>275.829</v>
       </c>
       <c r="G88" t="n">
+        <v>631.406666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>629.8666666666662</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3991,21 @@
         <v>256.6503</v>
       </c>
       <c r="G89" t="n">
+        <v>631.1733333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>630.1316666666662</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4029,21 @@
         <v>256.6503</v>
       </c>
       <c r="G90" t="n">
+        <v>630.8666666666669</v>
+      </c>
+      <c r="H90" t="n">
         <v>630.3199999999996</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4067,21 @@
         <v>450</v>
       </c>
       <c r="G91" t="n">
+        <v>631.1266666666669</v>
+      </c>
+      <c r="H91" t="n">
         <v>630.5866666666662</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4105,21 @@
         <v>1700</v>
       </c>
       <c r="G92" t="n">
+        <v>631.1266666666669</v>
+      </c>
+      <c r="H92" t="n">
         <v>630.8533333333329</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4143,21 @@
         <v>9942.1422</v>
       </c>
       <c r="G93" t="n">
+        <v>631.7466666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>631.248333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4181,21 @@
         <v>15.6251</v>
       </c>
       <c r="G94" t="n">
+        <v>632.0400000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>631.6649999999996</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4219,21 @@
         <v>500</v>
       </c>
       <c r="G95" t="n">
+        <v>632.6200000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>632.0199999999998</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4257,21 @@
         <v>310</v>
       </c>
       <c r="G96" t="n">
+        <v>632.6066666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>632.2816666666664</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4295,21 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
+        <v>632.5200000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>632.4566666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4333,21 @@
         <v>500</v>
       </c>
       <c r="G98" t="n">
+        <v>632.5333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>632.6316666666664</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4371,21 @@
         <v>8023.9953</v>
       </c>
       <c r="G99" t="n">
+        <v>632.08</v>
+      </c>
+      <c r="H99" t="n">
         <v>632.7349999999998</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4409,21 @@
         <v>2905.45672032</v>
       </c>
       <c r="G100" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>632.9149999999997</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4447,21 @@
         <v>2781.5352</v>
       </c>
       <c r="G101" t="n">
+        <v>631.12</v>
+      </c>
+      <c r="H101" t="n">
         <v>633.0333333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4485,21 @@
         <v>1781</v>
       </c>
       <c r="G102" t="n">
+        <v>630.3466666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>633.0733333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4523,21 @@
         <v>1490</v>
       </c>
       <c r="G103" t="n">
+        <v>629.7199999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>633.1099999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4561,21 @@
         <v>6538.0574</v>
       </c>
       <c r="G104" t="n">
+        <v>629.4133333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>633.1266666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4599,21 @@
         <v>4601.079</v>
       </c>
       <c r="G105" t="n">
+        <v>628.92</v>
+      </c>
+      <c r="H105" t="n">
         <v>633.1916666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4637,21 @@
         <v>1660.7261</v>
       </c>
       <c r="G106" t="n">
+        <v>628.1133333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>633.1483333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4675,21 @@
         <v>2742.8895</v>
       </c>
       <c r="G107" t="n">
+        <v>627.3133333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>633.1483333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,22 +4713,21 @@
         <v>2238.8021</v>
       </c>
       <c r="G108" t="n">
+        <v>626.1533333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>633.1149999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>621</v>
-      </c>
-      <c r="K108" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4217,26 +4751,21 @@
         <v>91.0209</v>
       </c>
       <c r="G109" t="n">
+        <v>624.9933333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>632.8333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>621</v>
-      </c>
-      <c r="K109" t="n">
-        <v>621</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,26 +4789,21 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
+        <v>624.1333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>632.5083333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>621</v>
-      </c>
-      <c r="K110" t="n">
-        <v>621</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,26 +4827,21 @@
         <v>927.7948</v>
       </c>
       <c r="G111" t="n">
+        <v>623.4600000000002</v>
+      </c>
+      <c r="H111" t="n">
         <v>632.2366666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>621</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,24 +4865,21 @@
         <v>235.3314</v>
       </c>
       <c r="G112" t="n">
+        <v>622.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>631.9249999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>621</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,24 +4903,21 @@
         <v>1831</v>
       </c>
       <c r="G113" t="n">
+        <v>622.7600000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>631.7033333333331</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>621</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,24 +4941,21 @@
         <v>1344.649</v>
       </c>
       <c r="G114" t="n">
+        <v>622.7866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>631.4083333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>621</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,24 +4979,21 @@
         <v>63.4</v>
       </c>
       <c r="G115" t="n">
+        <v>622.4666666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>631.1233333333331</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>621</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4510,24 +5017,21 @@
         <v>104.1399</v>
       </c>
       <c r="G116" t="n">
+        <v>622.1466666666669</v>
+      </c>
+      <c r="H116" t="n">
         <v>630.7749999999997</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>621</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4551,26 +5055,21 @@
         <v>513.9</v>
       </c>
       <c r="G117" t="n">
+        <v>622.0533333333335</v>
+      </c>
+      <c r="H117" t="n">
         <v>630.4699999999997</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>621</v>
-      </c>
-      <c r="K117" t="n">
-        <v>621</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,24 +5093,21 @@
         <v>11531.4782</v>
       </c>
       <c r="G118" t="n">
+        <v>621.9066666666669</v>
+      </c>
+      <c r="H118" t="n">
         <v>630.148333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>621</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,24 +5131,21 @@
         <v>86.8943</v>
       </c>
       <c r="G119" t="n">
+        <v>621.3800000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>629.8449999999997</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>621</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,24 +5169,21 @@
         <v>0.8129</v>
       </c>
       <c r="G120" t="n">
+        <v>620.9866666666669</v>
+      </c>
+      <c r="H120" t="n">
         <v>629.4133333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>621</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,24 +5207,21 @@
         <v>500</v>
       </c>
       <c r="G121" t="n">
+        <v>620.4666666666669</v>
+      </c>
+      <c r="H121" t="n">
         <v>628.9666666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>621</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,24 +5245,21 @@
         <v>1752.1873</v>
       </c>
       <c r="G122" t="n">
+        <v>620.2333333333336</v>
+      </c>
+      <c r="H122" t="n">
         <v>628.608333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>621</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,24 +5283,25 @@
         <v>460</v>
       </c>
       <c r="G123" t="n">
+        <v>619.9733333333336</v>
+      </c>
+      <c r="H123" t="n">
         <v>628.2266666666662</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>621</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,24 +5325,29 @@
         <v>4071</v>
       </c>
       <c r="G124" t="n">
+        <v>619.8400000000003</v>
+      </c>
+      <c r="H124" t="n">
         <v>627.893333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>621</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,24 +5371,29 @@
         <v>511.8417</v>
       </c>
       <c r="G125" t="n">
+        <v>619.406666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>627.5599999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>621</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>619</v>
+      </c>
+      <c r="L125" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,24 +5417,29 @@
         <v>1250</v>
       </c>
       <c r="G126" t="n">
+        <v>619.1600000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>627.2266666666662</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>621</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>619</v>
+      </c>
+      <c r="L126" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,24 +5463,29 @@
         <v>3209.237</v>
       </c>
       <c r="G127" t="n">
+        <v>619.1400000000002</v>
+      </c>
+      <c r="H127" t="n">
         <v>626.893333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="n">
-        <v>621</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+        <v>619</v>
+      </c>
+      <c r="L127" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,24 +5509,27 @@
         <v>990</v>
       </c>
       <c r="G128" t="n">
+        <v>618.1666666666669</v>
+      </c>
+      <c r="H128" t="n">
         <v>626.4316666666662</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>621</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5045,24 +5553,29 @@
         <v>4908.1109</v>
       </c>
       <c r="G129" t="n">
+        <v>617.4866666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>625.9399999999995</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
-        <v>621</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,24 +5599,27 @@
         <v>500</v>
       </c>
       <c r="G130" t="n">
+        <v>617.2200000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>625.6433333333329</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>621</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,24 +5643,27 @@
         <v>2671.4842</v>
       </c>
       <c r="G131" t="n">
+        <v>616.9533333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>625.3999999999995</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>621</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,24 +5687,27 @@
         <v>5220.3218</v>
       </c>
       <c r="G132" t="n">
+        <v>616.9533333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>625.2066666666663</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>621</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,24 +5731,27 @@
         <v>5221.3025</v>
       </c>
       <c r="G133" t="n">
+        <v>617.3466666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>625.0949999999996</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>621</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,24 +5775,27 @@
         <v>263.0407</v>
       </c>
       <c r="G134" t="n">
+        <v>617.5466666666669</v>
+      </c>
+      <c r="H134" t="n">
         <v>624.8783333333329</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>621</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,24 +5819,27 @@
         <v>2838.5031</v>
       </c>
       <c r="G135" t="n">
+        <v>618.3133333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>624.7716666666662</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>621</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,24 +5863,27 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
+        <v>619.4933333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>624.7999999999996</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>621</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,24 +5907,27 @@
         <v>88.92140000000001</v>
       </c>
       <c r="G137" t="n">
+        <v>620.2600000000001</v>
+      </c>
+      <c r="H137" t="n">
         <v>624.733333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>621</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,24 +5951,27 @@
         <v>7.0516</v>
       </c>
       <c r="G138" t="n">
+        <v>621.0533333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>624.7316666666663</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>621</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5455,24 +5995,27 @@
         <v>545</v>
       </c>
       <c r="G139" t="n">
+        <v>621.4600000000002</v>
+      </c>
+      <c r="H139" t="n">
         <v>624.5833333333329</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>621</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,24 +6039,27 @@
         <v>5784.7003</v>
       </c>
       <c r="G140" t="n">
+        <v>621.7266666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>624.4716666666664</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>621</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5537,24 +6083,27 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
+        <v>621.9200000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>624.2866666666664</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>621</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,24 +6127,27 @@
         <v>96.8614</v>
       </c>
       <c r="G142" t="n">
+        <v>622.1266666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>624.1466666666663</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>621</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,24 +6171,27 @@
         <v>222.898</v>
       </c>
       <c r="G143" t="n">
+        <v>623.0400000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>624.1249999999998</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>621</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,24 +6215,27 @@
         <v>1063.3</v>
       </c>
       <c r="G144" t="n">
+        <v>624.3466666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>624.1749999999997</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>621</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,24 +6259,27 @@
         <v>0.7927999999999999</v>
       </c>
       <c r="G145" t="n">
+        <v>625.2600000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>624.1366666666664</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>621</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5742,24 +6303,27 @@
         <v>240</v>
       </c>
       <c r="G146" t="n">
+        <v>625.7933333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>624.003333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>621</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,24 +6347,27 @@
         <v>0.7941</v>
       </c>
       <c r="G147" t="n">
+        <v>626.4400000000002</v>
+      </c>
+      <c r="H147" t="n">
         <v>623.948333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>621</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,24 +6391,27 @@
         <v>1496.672</v>
       </c>
       <c r="G148" t="n">
+        <v>626.8200000000002</v>
+      </c>
+      <c r="H148" t="n">
         <v>623.948333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>621</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5865,24 +6435,27 @@
         <v>323.6</v>
       </c>
       <c r="G149" t="n">
+        <v>627.0266666666669</v>
+      </c>
+      <c r="H149" t="n">
         <v>623.8416666666664</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>621</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5906,24 +6479,27 @@
         <v>29.3429</v>
       </c>
       <c r="G150" t="n">
+        <v>626.7333333333336</v>
+      </c>
+      <c r="H150" t="n">
         <v>623.7383333333329</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>621</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5947,24 +6523,27 @@
         <v>1.1773</v>
       </c>
       <c r="G151" t="n">
+        <v>626.1600000000003</v>
+      </c>
+      <c r="H151" t="n">
         <v>623.5583333333328</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>621</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,24 +6567,27 @@
         <v>249.7308</v>
       </c>
       <c r="G152" t="n">
+        <v>625.706666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>623.3783333333328</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>621</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,24 +6611,27 @@
         <v>50</v>
       </c>
       <c r="G153" t="n">
+        <v>625.2466666666671</v>
+      </c>
+      <c r="H153" t="n">
         <v>623.1066666666661</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>621</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,24 +6655,27 @@
         <v>3384.3691</v>
       </c>
       <c r="G154" t="n">
+        <v>624.8400000000004</v>
+      </c>
+      <c r="H154" t="n">
         <v>622.7833333333327</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>621</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,24 +6699,27 @@
         <v>29.683</v>
       </c>
       <c r="G155" t="n">
+        <v>624.506666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>622.4433333333327</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>621</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,24 +6743,27 @@
         <v>809.3473</v>
       </c>
       <c r="G156" t="n">
+        <v>624.2466666666671</v>
+      </c>
+      <c r="H156" t="n">
         <v>622.196666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>621</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,24 +6787,27 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
+        <v>623.9733333333337</v>
+      </c>
+      <c r="H157" t="n">
         <v>622.0099999999994</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>621</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,24 +6831,27 @@
         <v>2892.9393</v>
       </c>
       <c r="G158" t="n">
+        <v>623.3200000000004</v>
+      </c>
+      <c r="H158" t="n">
         <v>621.821666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>621</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,24 +6875,27 @@
         <v>1015.8632</v>
       </c>
       <c r="G159" t="n">
+        <v>622.4066666666671</v>
+      </c>
+      <c r="H159" t="n">
         <v>621.7566666666661</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>621</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,24 +6919,27 @@
         <v>3200</v>
       </c>
       <c r="G160" t="n">
+        <v>621.4466666666669</v>
+      </c>
+      <c r="H160" t="n">
         <v>621.5983333333328</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>621</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,24 +6963,27 @@
         <v>595.42655236</v>
       </c>
       <c r="G161" t="n">
+        <v>621.4200000000003</v>
+      </c>
+      <c r="H161" t="n">
         <v>621.5783333333327</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>621</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,24 +7007,27 @@
         <v>2.3876</v>
       </c>
       <c r="G162" t="n">
+        <v>621.0066666666669</v>
+      </c>
+      <c r="H162" t="n">
         <v>621.6133333333327</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>621</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6439,24 +7051,27 @@
         <v>636.6353</v>
       </c>
       <c r="G163" t="n">
+        <v>620.3133333333336</v>
+      </c>
+      <c r="H163" t="n">
         <v>621.596666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>621</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,24 +7095,27 @@
         <v>150</v>
       </c>
       <c r="G164" t="n">
+        <v>620.1200000000003</v>
+      </c>
+      <c r="H164" t="n">
         <v>621.5183333333326</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>621</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,24 +7139,27 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>620.1666666666669</v>
+      </c>
+      <c r="H165" t="n">
         <v>621.5499999999993</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>621</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6562,24 +7183,27 @@
         <v>80</v>
       </c>
       <c r="G166" t="n">
+        <v>620.2666666666669</v>
+      </c>
+      <c r="H166" t="n">
         <v>621.5966666666659</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>621</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6603,24 +7227,27 @@
         <v>80</v>
       </c>
       <c r="G167" t="n">
+        <v>620.3666666666669</v>
+      </c>
+      <c r="H167" t="n">
         <v>621.6416666666659</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>621</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,24 +7271,27 @@
         <v>624</v>
       </c>
       <c r="G168" t="n">
+        <v>620.3600000000002</v>
+      </c>
+      <c r="H168" t="n">
         <v>621.6583333333325</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>621</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,24 +7315,27 @@
         <v>125</v>
       </c>
       <c r="G169" t="n">
+        <v>620.5600000000002</v>
+      </c>
+      <c r="H169" t="n">
         <v>621.6749999999992</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>621</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,24 +7359,27 @@
         <v>550</v>
       </c>
       <c r="G170" t="n">
+        <v>620.8266666666669</v>
+      </c>
+      <c r="H170" t="n">
         <v>621.6166666666658</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>621</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6767,24 +7403,27 @@
         <v>0.5685</v>
       </c>
       <c r="G171" t="n">
+        <v>621.0933333333336</v>
+      </c>
+      <c r="H171" t="n">
         <v>621.6049999999992</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>621</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6808,24 +7447,27 @@
         <v>7.1978</v>
       </c>
       <c r="G172" t="n">
+        <v>621.4200000000002</v>
+      </c>
+      <c r="H172" t="n">
         <v>621.6649999999992</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>621</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6849,24 +7491,27 @@
         <v>353.7</v>
       </c>
       <c r="G173" t="n">
+        <v>621.5000000000002</v>
+      </c>
+      <c r="H173" t="n">
         <v>621.5066666666659</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>621</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6890,24 +7535,27 @@
         <v>10.9685</v>
       </c>
       <c r="G174" t="n">
+        <v>621.9800000000002</v>
+      </c>
+      <c r="H174" t="n">
         <v>621.5549999999992</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>621</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6931,24 +7579,27 @@
         <v>29</v>
       </c>
       <c r="G175" t="n">
+        <v>622.226666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>621.5383333333325</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>621</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,24 +7623,27 @@
         <v>1926.8581</v>
       </c>
       <c r="G176" t="n">
+        <v>622.046666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>621.5533333333326</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>621</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,24 +7667,27 @@
         <v>745.0855</v>
       </c>
       <c r="G177" t="n">
+        <v>621.9400000000003</v>
+      </c>
+      <c r="H177" t="n">
         <v>621.5849999999992</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>621</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7054,24 +7711,27 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
+        <v>622.0600000000002</v>
+      </c>
+      <c r="H178" t="n">
         <v>621.6349999999992</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>621</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7095,24 +7755,27 @@
         <v>1038.1</v>
       </c>
       <c r="G179" t="n">
+        <v>622.2400000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>621.7333333333326</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>621</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,24 +7799,27 @@
         <v>447.0147</v>
       </c>
       <c r="G180" t="n">
+        <v>622.3733333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>621.896666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>621</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7177,24 +7843,27 @@
         <v>1914.902</v>
       </c>
       <c r="G181" t="n">
+        <v>622.5000000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>622.1049999999993</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>621</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7218,24 +7887,467 @@
         <v>870</v>
       </c>
       <c r="G182" t="n">
+        <v>622.14</v>
+      </c>
+      <c r="H182" t="n">
         <v>622.1183333333327</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>621</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>623</v>
+      </c>
+      <c r="C183" t="n">
+        <v>623</v>
+      </c>
+      <c r="D183" t="n">
+        <v>623</v>
+      </c>
+      <c r="E183" t="n">
+        <v>623</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>622.2066666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>622.216666666666</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>623</v>
+      </c>
+      <c r="C184" t="n">
+        <v>623</v>
+      </c>
+      <c r="D184" t="n">
+        <v>623</v>
+      </c>
+      <c r="E184" t="n">
+        <v>623</v>
+      </c>
+      <c r="F184" t="n">
+        <v>32.0227</v>
+      </c>
+      <c r="G184" t="n">
+        <v>622.2733333333333</v>
+      </c>
+      <c r="H184" t="n">
+        <v>622.2833333333327</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>623</v>
+      </c>
+      <c r="C185" t="n">
+        <v>624</v>
+      </c>
+      <c r="D185" t="n">
+        <v>624</v>
+      </c>
+      <c r="E185" t="n">
+        <v>623</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17</v>
+      </c>
+      <c r="G185" t="n">
+        <v>622.4066666666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>622.3666666666661</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>624</v>
+      </c>
+      <c r="C186" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>624</v>
+      </c>
+      <c r="F186" t="n">
+        <v>27</v>
+      </c>
+      <c r="G186" t="n">
+        <v>622.6333333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>622.4733333333328</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="E187" t="n">
+        <v>625.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>622.8</v>
+      </c>
+      <c r="H187" t="n">
+        <v>622.5799999999995</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>568.763</v>
+      </c>
+      <c r="G188" t="n">
+        <v>623.1266666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>622.7466666666661</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4701.4629</v>
+      </c>
+      <c r="G189" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>622.9583333333327</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1729.7741</v>
+      </c>
+      <c r="G190" t="n">
+        <v>623.3733333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>623.076666666666</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>50</v>
+      </c>
+      <c r="G191" t="n">
+        <v>623.3933333333334</v>
+      </c>
+      <c r="H191" t="n">
+        <v>623.1633333333326</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>620</v>
+      </c>
+      <c r="C192" t="n">
+        <v>620</v>
+      </c>
+      <c r="D192" t="n">
+        <v>620</v>
+      </c>
+      <c r="E192" t="n">
+        <v>620</v>
+      </c>
+      <c r="F192" t="n">
+        <v>29.342</v>
+      </c>
+      <c r="G192" t="n">
+        <v>623.2666666666668</v>
+      </c>
+      <c r="H192" t="n">
+        <v>623.1633333333326</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>9946.423322870003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>9946.423322870003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>8949.401722870003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>8950.201722870002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>1938.610022870002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,22 +2992,15 @@
         <v>-43520.11346202</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3268,26 +3025,15 @@
         <v>-43403.41346202001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>610.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3312,26 +3058,15 @@
         <v>-40990.73196202001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,26 +3091,15 @@
         <v>-40630.73196202001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>612.4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3400,26 +3124,15 @@
         <v>-40630.73196202001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="K83" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3446,22 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3488,22 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3528,26 +3223,15 @@
         <v>-37230.73196202001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>613.6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3574,22 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3616,22 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3656,26 +3322,15 @@
         <v>-35160.73196202001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3702,22 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3744,22 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3786,22 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3828,22 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3870,22 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3912,22 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3954,22 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3994,26 +3586,15 @@
         <v>-32231.55936202001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>618.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,22 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4082,22 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4124,22 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4166,22 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4206,24 +3751,19 @@
         <v>-26165.51786202001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="J102" t="n">
+        <v>619</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4250,22 +3790,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>619</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4292,22 +3829,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>619</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4334,22 +3868,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>619</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4376,22 +3907,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>619</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4418,22 +3946,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>619</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4460,22 +3985,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>619</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4502,22 +4024,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>619</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4544,22 +4063,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>619</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4586,22 +4102,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>619</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4628,22 +4141,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>619</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4670,22 +4180,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>619</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4712,22 +4219,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>619</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4754,22 +4258,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>619</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4796,22 +4297,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>619</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4838,22 +4336,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>619</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4878,24 +4373,23 @@
         <v>-32820.07176202001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>635.2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>619</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4922,22 +4416,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>619</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4964,22 +4455,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>619</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5006,22 +4494,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>619</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5048,22 +4533,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>619</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5090,22 +4572,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>619</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5132,22 +4611,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>619</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5172,24 +4648,23 @@
         <v>-50780.63336202001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>639</v>
+      </c>
+      <c r="J125" t="n">
+        <v>619</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5216,22 +4691,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>619</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5258,22 +4730,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>619</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5300,22 +4769,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>619</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5342,22 +4808,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>619</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5382,24 +4845,23 @@
         <v>-46794.99726202001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>631.6</v>
+      </c>
+      <c r="J130" t="n">
+        <v>619</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5424,24 +4886,23 @@
         <v>-46794.99726202001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>631.6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>619</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5468,22 +4929,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>619</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5510,22 +4968,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>619</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5552,22 +5007,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>619</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5594,22 +5046,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>619</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5636,22 +5085,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>619</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5678,22 +5124,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>619</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5718,24 +5161,21 @@
         <v>-44629.14247957001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>619</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5762,22 +5202,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>619</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5804,22 +5241,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>619</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5846,22 +5280,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>619</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5886,24 +5317,21 @@
         <v>-46130.66987957001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>619</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5930,22 +5358,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>619</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5970,24 +5395,21 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>619</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6014,22 +5436,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>619</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6054,24 +5473,21 @@
         <v>-46405.65747957001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>619</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6098,22 +5514,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>619</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6140,22 +5553,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>619</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6182,22 +5592,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>619</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6222,24 +5629,21 @@
         <v>-46468.95807957002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>619</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6266,22 +5670,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>619</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6308,22 +5709,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>619</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6350,22 +5748,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>619</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6390,24 +5785,21 @@
         <v>-36836.81587957001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>619</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6434,22 +5826,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>619</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6476,22 +5865,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>619</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6516,24 +5902,21 @@
         <v>-44362.81117957002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>619</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6558,24 +5941,21 @@
         <v>-41457.35445925002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>619</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6602,22 +5982,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>619</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6644,22 +6021,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>619</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6686,22 +6060,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>619</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6728,22 +6099,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>619</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6770,22 +6138,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>619</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6812,22 +6177,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>619</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6854,22 +6216,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>619</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6896,22 +6255,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>619</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6938,22 +6294,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>619</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6980,22 +6333,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>619</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7022,22 +6372,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>619</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7064,22 +6411,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>619</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7106,22 +6450,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>619</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7148,22 +6489,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>619</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7190,22 +6528,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>619</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7232,22 +6567,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>619</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7274,22 +6606,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>619</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7316,22 +6645,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>619</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7358,22 +6684,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>619</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7400,22 +6723,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>619</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7442,22 +6762,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>619</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7484,22 +6801,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>619</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7526,22 +6840,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>619</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7566,26 +6877,21 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="K182" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7612,22 +6918,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>619</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7654,22 +6957,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>619</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7696,22 +6996,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>619</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7738,22 +7035,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>619</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7780,22 +7074,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>619</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7820,26 +7111,21 @@
         <v>-55116.39685925002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>611.4</v>
-      </c>
-      <c r="K188" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7864,26 +7150,21 @@
         <v>-55116.39685925002</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>617</v>
-      </c>
-      <c r="K189" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7908,26 +7189,21 @@
         <v>-49896.07505925003</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>617</v>
-      </c>
-      <c r="K190" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7954,22 +7230,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>619</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7996,22 +7269,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>619</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8038,22 +7308,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>619</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8080,22 +7347,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>619</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8122,22 +7386,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>619</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8164,22 +7425,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>619</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8206,22 +7464,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>619</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8248,22 +7503,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>619</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8290,22 +7542,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>619</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8332,22 +7581,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>619</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8374,22 +7620,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>619</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8416,22 +7659,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>619</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8458,22 +7698,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>619</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8500,22 +7737,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>619</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8542,22 +7776,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>619</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8584,22 +7815,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>619</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8626,22 +7854,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>619</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8668,22 +7893,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>619</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8710,22 +7932,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>619</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8750,24 +7969,23 @@
         <v>-47230.14205925002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>622.2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>619</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8792,24 +8010,23 @@
         <v>-47280.14205925002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>622.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>619</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8834,24 +8051,23 @@
         <v>-50664.51115925002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>622.1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>619</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8876,24 +8092,23 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="J213" t="n">
+        <v>619</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8918,26 +8133,23 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J214" t="n">
-        <v>618</v>
-      </c>
-      <c r="K214" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8962,26 +8174,23 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J215" t="n">
-        <v>618</v>
-      </c>
-      <c r="K215" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9006,26 +8215,23 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J216" t="n">
-        <v>618</v>
-      </c>
-      <c r="K216" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9050,26 +8256,23 @@
         <v>-51710.05735925001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J217" t="n">
-        <v>618</v>
-      </c>
-      <c r="K217" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9094,26 +8297,23 @@
         <v>-54910.05735925001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>617.3</v>
       </c>
       <c r="J218" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="K218" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9138,26 +8338,23 @@
         <v>-54314.63080689002</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>616.3</v>
       </c>
       <c r="J219" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="K219" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9182,26 +8379,23 @@
         <v>-54317.01840689002</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>624.6</v>
       </c>
       <c r="J220" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="K220" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9226,24 +8420,23 @@
         <v>-54953.65370689002</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>623.5</v>
+      </c>
+      <c r="J221" t="n">
+        <v>619</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9268,26 +8461,21 @@
         <v>-54953.65370689002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="K222" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9312,26 +8500,23 @@
         <v>-54952.65370689002</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>620.2</v>
       </c>
       <c r="J223" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="K223" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9356,24 +8541,23 @@
         <v>-54872.65370689002</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>622.9</v>
+      </c>
+      <c r="J224" t="n">
+        <v>619</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9398,26 +8582,23 @@
         <v>-54872.65370689002</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>623.7</v>
       </c>
       <c r="J225" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="K225" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9442,26 +8623,21 @@
         <v>-55496.65370689002</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="K226" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9486,24 +8662,23 @@
         <v>-55496.65370689002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="J227" t="n">
+        <v>619</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9528,26 +8703,21 @@
         <v>-55496.65370689002</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>622</v>
-      </c>
-      <c r="K228" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9574,22 +8744,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>619</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9614,26 +8781,21 @@
         <v>-55489.45590689002</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>622</v>
-      </c>
-      <c r="K230" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9658,26 +8820,23 @@
         <v>-55843.15590689002</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>622.9</v>
       </c>
       <c r="J231" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="K231" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9702,26 +8861,23 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>619.2</v>
       </c>
       <c r="J232" t="n">
-        <v>619.2</v>
-      </c>
-      <c r="K232" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9746,26 +8902,23 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>624.5</v>
       </c>
       <c r="J233" t="n">
-        <v>624.5</v>
-      </c>
-      <c r="K233" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9790,26 +8943,21 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>620</v>
-      </c>
-      <c r="K234" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9834,26 +8982,21 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="K235" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9878,26 +9021,21 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="K236" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9922,26 +9060,23 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="J237" t="n">
-        <v>622</v>
-      </c>
-      <c r="K237" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9966,26 +9101,23 @@
         <v>-52448.21460689002</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>622.9</v>
       </c>
       <c r="J238" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="K238" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10010,26 +9142,23 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>624.9</v>
       </c>
       <c r="J239" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="K239" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10054,26 +9183,23 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>625.6</v>
       </c>
       <c r="J240" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="K240" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10098,26 +9224,21 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>618.3</v>
-      </c>
-      <c r="K241" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10142,26 +9263,21 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>623</v>
-      </c>
-      <c r="K242" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10186,26 +9302,23 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="J243" t="n">
-        <v>623</v>
-      </c>
-      <c r="K243" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10230,24 +9343,23 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>624</v>
+      </c>
+      <c r="J244" t="n">
+        <v>619</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10272,24 +9384,23 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>625.4</v>
+      </c>
+      <c r="J245" t="n">
+        <v>619</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10314,26 +9425,23 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>625.4</v>
       </c>
       <c r="J246" t="n">
-        <v>625.4</v>
-      </c>
-      <c r="K246" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10358,26 +9466,23 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>624.1</v>
       </c>
       <c r="J247" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="K247" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10402,24 +9507,23 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>624.1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>619</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10444,24 +9548,23 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>624.1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>619</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10486,26 +9589,25 @@
         <v>-52006.41760689001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>622.2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>619</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>9946.423322870003</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9946.423322870003</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6089.859522870003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8949.401722870003</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8950.201722870002</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8910.201722870002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8911.001722870002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4599.915822870002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3818.710022870002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2827.110022870002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2827.910022870002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2826.210022870002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1938.610022870002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-9730.937762019999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-9730.13776202</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-9728.53776202</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9784.484562019999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9925.431362019999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9921.331362019999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9919.731362019998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-10683.98406202</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10683.18406202</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10685.08986202</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10713.96536202</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-10752.96536202</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4198.825662019999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4198.825662019999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4359.153262019999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4358.153262019999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9832.971862019998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3751,14 +3751,10 @@
         <v>-26165.51786202001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>619</v>
-      </c>
-      <c r="J102" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3791,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>619</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>619</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>619</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3908,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>619</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3947,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>619</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>619</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4025,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>619</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4064,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>619</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>619</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4142,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>619</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4181,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>619</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>619</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4259,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>619</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4298,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>619</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4337,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>619</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4373,17 +4279,15 @@
         <v>-32820.07176202001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>635.2</v>
       </c>
-      <c r="J118" t="n">
-        <v>619</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4417,9 +4321,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>619</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,12 +4355,12 @@
         <v>-45156.88166202001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>639.9</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4495,9 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>619</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,9 +4434,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>619</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,9 +4471,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>619</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4612,9 +4508,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>619</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,14 +4542,10 @@
         <v>-50780.63336202001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>639</v>
-      </c>
-      <c r="J125" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,9 +4582,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>619</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4731,9 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>619</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4770,9 +4656,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>619</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,12 +4690,12 @@
         <v>-46794.99726202001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,14 +4729,12 @@
         <v>-46794.99726202001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>631.6</v>
       </c>
-      <c r="J130" t="n">
-        <v>619</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4886,14 +4768,10 @@
         <v>-46794.99726202001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="J131" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,12 +4805,12 @@
         <v>-46787.09836787001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,9 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>619</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>619</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,9 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>619</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,9 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>619</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>619</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,12 +5029,10 @@
         <v>-44629.14247957001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>619</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,12 +5066,12 @@
         <v>-44628.14247957001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,9 +5108,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>619</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,9 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>619</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,10 +5181,10 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>619</v>
-      </c>
+      <c r="I142" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,12 +5218,12 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>628</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,12 +5257,10 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>619</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,9 +5297,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>619</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,12 +5331,10 @@
         <v>-46405.65747957001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>619</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5515,9 +5371,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>619</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,12 +5405,12 @@
         <v>-46918.95807957002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,12 +5444,12 @@
         <v>-46468.95807957002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,12 +5483,10 @@
         <v>-46468.95807957002</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>619</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5671,9 +5523,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>619</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,9 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>619</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5749,9 +5597,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>619</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,12 +5631,10 @@
         <v>-36836.81587957001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>619</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5827,9 +5671,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>619</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,9 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>619</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,12 +5742,10 @@
         <v>-44362.81117957002</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>619</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5941,12 +5779,10 @@
         <v>-41457.35445925002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>619</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,9 +5819,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>619</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,9 +5856,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>619</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6061,9 +5893,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>619</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,9 +5930,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>619</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,9 +5967,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>619</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,9 +6004,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>619</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,9 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>619</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,9 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>619</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,9 +6115,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>619</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,9 +6152,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>619</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,9 +6189,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>619</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,9 +6226,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>619</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,9 +6263,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>619</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,9 +6300,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>619</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,9 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>619</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,9 +6374,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>619</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,9 +6411,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>619</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,9 +6448,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>619</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,9 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>619</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,9 +6522,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>619</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,9 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>619</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6802,9 +6596,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>619</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6841,9 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>619</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,12 +6667,12 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6919,9 +6709,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>619</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,12 +6743,12 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
         <v>619</v>
       </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,12 +6782,12 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
         <v>619</v>
       </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,9 +6824,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>619</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7072,12 +6858,12 @@
         <v>-55616.39685925002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7111,12 +6897,12 @@
         <v>-55116.39685925002</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>611.4</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7153,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>619</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>619</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,9 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>619</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>619</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,9 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>619</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7348,9 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>619</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,9 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>619</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>619</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,9 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>619</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>619</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>619</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,9 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>619</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>619</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,9 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>619</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,9 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>619</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>619</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,9 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>619</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,9 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>619</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,9 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>619</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>619</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7933,9 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>619</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,14 +7713,10 @@
         <v>-47230.14205925002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="J210" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8010,14 +7750,10 @@
         <v>-47280.14205925002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="J211" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,14 +7787,10 @@
         <v>-50664.51115925002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="J212" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,14 +7824,10 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>619</v>
-      </c>
-      <c r="J213" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,14 +7861,10 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>618</v>
-      </c>
-      <c r="J214" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,14 +7898,12 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>618</v>
       </c>
-      <c r="J215" t="n">
-        <v>619</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,14 +7937,12 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>618</v>
       </c>
-      <c r="J216" t="n">
-        <v>619</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,14 +7976,10 @@
         <v>-51710.05735925001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>618</v>
-      </c>
-      <c r="J217" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,14 +8013,10 @@
         <v>-54910.05735925001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="J218" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,14 +8050,10 @@
         <v>-54314.63080689002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="J219" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,14 +8087,10 @@
         <v>-54317.01840689002</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="J220" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,14 +8124,10 @@
         <v>-54953.65370689002</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="J221" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,9 +8164,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>619</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8500,14 +8198,10 @@
         <v>-54952.65370689002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="J223" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,14 +8235,10 @@
         <v>-54872.65370689002</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="J224" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,14 +8272,10 @@
         <v>-54872.65370689002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="J225" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,9 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>619</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,14 +8346,10 @@
         <v>-55496.65370689002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>622</v>
-      </c>
-      <c r="J227" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8706,9 +8386,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>619</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8745,9 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>619</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8784,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>619</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,14 +8494,12 @@
         <v>-55843.15590689002</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>622.9</v>
       </c>
-      <c r="J231" t="n">
-        <v>619</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8861,14 +8533,12 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>619.2</v>
       </c>
-      <c r="J232" t="n">
-        <v>619</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,14 +8572,12 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>624.5</v>
       </c>
-      <c r="J233" t="n">
-        <v>619</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8943,12 +8611,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>620</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,12 +8650,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,12 +8689,12 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9060,14 +8728,12 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>622</v>
       </c>
-      <c r="J237" t="n">
-        <v>619</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9101,14 +8767,10 @@
         <v>-52448.21460689002</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="J238" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9142,14 +8804,12 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>624.9</v>
       </c>
-      <c r="J239" t="n">
-        <v>619</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,14 +8843,12 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>625.6</v>
       </c>
-      <c r="J240" t="n">
-        <v>619</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,12 +8882,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>618.3</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,12 +8921,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>623</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,14 +8960,12 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>623</v>
       </c>
-      <c r="J243" t="n">
-        <v>619</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,14 +8999,12 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>624</v>
       </c>
-      <c r="J244" t="n">
-        <v>619</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,14 +9038,12 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>625.4</v>
       </c>
-      <c r="J245" t="n">
-        <v>619</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,14 +9077,12 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>625.4</v>
       </c>
-      <c r="J246" t="n">
-        <v>619</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9466,14 +9116,12 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>624.1</v>
       </c>
-      <c r="J247" t="n">
-        <v>619</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,14 +9155,12 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>624.1</v>
       </c>
-      <c r="J248" t="n">
-        <v>619</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,14 +9194,12 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>624.1</v>
       </c>
-      <c r="J249" t="n">
-        <v>619</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9589,14 +9233,12 @@
         <v>-52006.41760689001</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>622.2</v>
       </c>
-      <c r="J250" t="n">
-        <v>619</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9608,6 +9250,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>6089.859522870003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8949.401722870003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8950.201722870002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8910.201722870002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8911.001722870002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4599.915822870002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3818.710022870002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2827.110022870002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2827.910022870002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2826.210022870002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-9730.937762019999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-9730.13776202</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-9728.53776202</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9784.484562019999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9925.431362019999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9921.331362019999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9919.731362019998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-10683.98406202</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10683.18406202</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10685.08986202</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10713.96536202</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-10752.96536202</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4198.825662019999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4198.825662019999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4359.153262019999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4358.153262019999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9832.971862019998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-35461.07176202001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,2181 +4279,1943 @@
         <v>-32820.07176202001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>635.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>636.8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>639.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>636.8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8268.0669</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-41088.13866202001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>640</v>
+      </c>
+      <c r="C120" t="n">
+        <v>639</v>
+      </c>
+      <c r="D120" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>639</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4068.743</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-45156.88166202001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>640</v>
+      </c>
+      <c r="C121" t="n">
+        <v>640</v>
+      </c>
+      <c r="D121" t="n">
+        <v>640</v>
+      </c>
+      <c r="E121" t="n">
+        <v>640</v>
+      </c>
+      <c r="F121" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-45062.18166202001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>639</v>
+      </c>
+      <c r="C122" t="n">
+        <v>639</v>
+      </c>
+      <c r="D122" t="n">
+        <v>639</v>
+      </c>
+      <c r="E122" t="n">
+        <v>639</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5718.4517</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-50780.63336202001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>639</v>
+      </c>
+      <c r="C123" t="n">
+        <v>639</v>
+      </c>
+      <c r="D123" t="n">
+        <v>639</v>
+      </c>
+      <c r="E123" t="n">
+        <v>639</v>
+      </c>
+      <c r="F123" t="n">
+        <v>177.0068</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-50780.63336202001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>639</v>
+      </c>
+      <c r="C124" t="n">
+        <v>639</v>
+      </c>
+      <c r="D124" t="n">
+        <v>639</v>
+      </c>
+      <c r="E124" t="n">
+        <v>639</v>
+      </c>
+      <c r="F124" t="n">
+        <v>166.0722</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-50780.63336202001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>639</v>
+      </c>
+      <c r="C125" t="n">
+        <v>639</v>
+      </c>
+      <c r="D125" t="n">
+        <v>639</v>
+      </c>
+      <c r="E125" t="n">
+        <v>639</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5652.5657</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-50780.63336202001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>639</v>
+      </c>
+      <c r="C126" t="n">
+        <v>641.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>642</v>
+      </c>
+      <c r="E126" t="n">
+        <v>639</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7894.1179</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-42886.51546202001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>637</v>
+      </c>
+      <c r="C127" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>637</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.8818</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-42890.39726202001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>635.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>635.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>634.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2410</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-45300.39726202001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>634</v>
+      </c>
+      <c r="C129" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>634</v>
+      </c>
+      <c r="E129" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1494.6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-46794.99726202001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-46794.99726202001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12.0092</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-46794.99726202001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>633</v>
+      </c>
+      <c r="C132" t="n">
+        <v>633</v>
+      </c>
+      <c r="D132" t="n">
+        <v>633</v>
+      </c>
+      <c r="E132" t="n">
+        <v>633</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7.89889415</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-46787.09836787001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>633</v>
+      </c>
+      <c r="C133" t="n">
+        <v>633</v>
+      </c>
+      <c r="D133" t="n">
+        <v>633</v>
+      </c>
+      <c r="E133" t="n">
+        <v>633</v>
+      </c>
+      <c r="F133" t="n">
+        <v>520.70810585</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-46787.09836787001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>633</v>
+      </c>
+      <c r="C134" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>633</v>
+      </c>
+      <c r="E134" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>280</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-47067.09836787001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>633</v>
+      </c>
+      <c r="C135" t="n">
+        <v>633</v>
+      </c>
+      <c r="D135" t="n">
+        <v>633</v>
+      </c>
+      <c r="E135" t="n">
+        <v>633</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16.7977883</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-47050.30057957002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>58.8419</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-47109.14247957001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>633</v>
+      </c>
+      <c r="C137" t="n">
+        <v>634</v>
+      </c>
+      <c r="D137" t="n">
+        <v>634</v>
+      </c>
+      <c r="E137" t="n">
+        <v>633</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2510</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-44599.14247957001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>30</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-44629.14247957001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>633</v>
+      </c>
+      <c r="C139" t="n">
+        <v>633</v>
+      </c>
+      <c r="D139" t="n">
+        <v>633</v>
+      </c>
+      <c r="E139" t="n">
+        <v>633</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-44628.14247957001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>502.5274</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-45130.66987957001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>294</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-45424.66987957001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>628</v>
+      </c>
+      <c r="D142" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>628</v>
+      </c>
+      <c r="F142" t="n">
+        <v>706</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-46130.66987957001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>633</v>
+      </c>
+      <c r="C143" t="n">
+        <v>633</v>
+      </c>
+      <c r="D143" t="n">
+        <v>633</v>
+      </c>
+      <c r="E143" t="n">
+        <v>633</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.8414</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-46129.82847957002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>633</v>
+      </c>
+      <c r="C144" t="n">
+        <v>633</v>
+      </c>
+      <c r="D144" t="n">
+        <v>633</v>
+      </c>
+      <c r="E144" t="n">
+        <v>633</v>
+      </c>
+      <c r="F144" t="n">
+        <v>500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-46129.82847957002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>632</v>
+      </c>
+      <c r="C145" t="n">
+        <v>633</v>
+      </c>
+      <c r="D145" t="n">
+        <v>633</v>
+      </c>
+      <c r="E145" t="n">
+        <v>632</v>
+      </c>
+      <c r="F145" t="n">
+        <v>570</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-46129.82847957002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>275.829</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-46405.65747957001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>629.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>256.6503</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-46662.30777957002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>256.6503</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-46918.95807957002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>633</v>
+      </c>
+      <c r="D149" t="n">
+        <v>633</v>
+      </c>
+      <c r="E149" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>450</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-46468.95807957002</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>632</v>
+      </c>
+      <c r="C150" t="n">
+        <v>633</v>
+      </c>
+      <c r="D150" t="n">
+        <v>633</v>
+      </c>
+      <c r="E150" t="n">
+        <v>632</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-46468.95807957002</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>633</v>
+      </c>
+      <c r="C151" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>633</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9942.1422</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-36526.81587957001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.6251</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-36526.81587957001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>500</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-36526.81587957001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>634</v>
+      </c>
+      <c r="C154" t="n">
+        <v>632.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>634</v>
+      </c>
+      <c r="E154" t="n">
+        <v>632.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>310</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-36836.81587957001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>633</v>
+      </c>
+      <c r="C155" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>633</v>
+      </c>
+      <c r="E155" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-36838.81587957001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>629.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>629.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>629.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>629.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>500</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-36338.81587957001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>630.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>630.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8023.9953</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-44362.81117957002</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>625.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2905.45672032</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-41457.35445925002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2781.5352</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-41457.35445925002</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>621.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>621.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-43238.35445925002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-44728.35445925002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>621.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>621</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6538.0574</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-38190.29705925002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>621</v>
+      </c>
+      <c r="C163" t="n">
+        <v>621</v>
+      </c>
+      <c r="D163" t="n">
+        <v>621</v>
+      </c>
+      <c r="E163" t="n">
+        <v>621</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4601.079</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-42791.37605925002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>620.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>620.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>620.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>620.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1660.7261</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-44452.10215925002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>621</v>
+      </c>
+      <c r="C165" t="n">
+        <v>621</v>
+      </c>
+      <c r="D165" t="n">
+        <v>621</v>
+      </c>
+      <c r="E165" t="n">
+        <v>621</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2742.8895</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-41709.21265925002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>621</v>
+      </c>
+      <c r="C166" t="n">
+        <v>621</v>
+      </c>
+      <c r="D166" t="n">
+        <v>621</v>
+      </c>
+      <c r="E166" t="n">
+        <v>621</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2238.8021</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-41709.21265925002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>621</v>
+      </c>
+      <c r="C167" t="n">
+        <v>621</v>
+      </c>
+      <c r="D167" t="n">
+        <v>621</v>
+      </c>
+      <c r="E167" t="n">
+        <v>621</v>
+      </c>
+      <c r="F167" t="n">
+        <v>91.0209</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-41709.21265925002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-41708.21265925002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>621.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>622.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>622.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>621.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>927.7948</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-42636.00745925002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>625</v>
+      </c>
+      <c r="C170" t="n">
+        <v>619.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>625</v>
+      </c>
+      <c r="E170" t="n">
+        <v>619.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>235.3314</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-42871.33885925003</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>619.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>628.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>628.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1831</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-41040.33885925003</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>621</v>
+      </c>
+      <c r="C172" t="n">
+        <v>621.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>622.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>621</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1344.649</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-42384.98785925002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>621</v>
+      </c>
+      <c r="C173" t="n">
+        <v>621</v>
+      </c>
+      <c r="D173" t="n">
+        <v>621</v>
+      </c>
+      <c r="E173" t="n">
+        <v>621</v>
+      </c>
+      <c r="F173" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-42448.38785925003</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>621</v>
+      </c>
+      <c r="C174" t="n">
+        <v>621</v>
+      </c>
+      <c r="D174" t="n">
+        <v>621</v>
+      </c>
+      <c r="E174" t="n">
+        <v>621</v>
+      </c>
+      <c r="F174" t="n">
+        <v>104.1399</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-42448.38785925003</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>621</v>
+      </c>
+      <c r="J174" t="n">
+        <v>621</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>620</v>
+      </c>
+      <c r="C175" t="n">
+        <v>620</v>
+      </c>
+      <c r="D175" t="n">
+        <v>620</v>
+      </c>
+      <c r="E175" t="n">
+        <v>620</v>
+      </c>
+      <c r="F175" t="n">
+        <v>513.9</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-42962.28785925003</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>621</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>618</v>
+      </c>
+      <c r="C176" t="n">
+        <v>619</v>
+      </c>
+      <c r="D176" t="n">
+        <v>619</v>
+      </c>
+      <c r="E176" t="n">
+        <v>612</v>
+      </c>
+      <c r="F176" t="n">
+        <v>11531.4782</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-54493.76605925003</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>620</v>
+      </c>
+      <c r="J176" t="n">
+        <v>621</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>636.8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>639.9</v>
-      </c>
-      <c r="D119" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>636.8</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8268.0669</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-41088.13866202001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>640</v>
-      </c>
-      <c r="C120" t="n">
-        <v>639</v>
-      </c>
-      <c r="D120" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>639</v>
-      </c>
-      <c r="F120" t="n">
-        <v>4068.743</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-45156.88166202001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>639.9</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>640</v>
-      </c>
-      <c r="C121" t="n">
-        <v>640</v>
-      </c>
-      <c r="D121" t="n">
-        <v>640</v>
-      </c>
-      <c r="E121" t="n">
-        <v>640</v>
-      </c>
-      <c r="F121" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-45062.18166202001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>639</v>
-      </c>
-      <c r="C122" t="n">
-        <v>639</v>
-      </c>
-      <c r="D122" t="n">
-        <v>639</v>
-      </c>
-      <c r="E122" t="n">
-        <v>639</v>
-      </c>
-      <c r="F122" t="n">
-        <v>5718.4517</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>639</v>
-      </c>
-      <c r="C123" t="n">
-        <v>639</v>
-      </c>
-      <c r="D123" t="n">
-        <v>639</v>
-      </c>
-      <c r="E123" t="n">
-        <v>639</v>
-      </c>
-      <c r="F123" t="n">
-        <v>177.0068</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>639</v>
-      </c>
-      <c r="C124" t="n">
-        <v>639</v>
-      </c>
-      <c r="D124" t="n">
-        <v>639</v>
-      </c>
-      <c r="E124" t="n">
-        <v>639</v>
-      </c>
-      <c r="F124" t="n">
-        <v>166.0722</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>639</v>
-      </c>
-      <c r="C125" t="n">
-        <v>639</v>
-      </c>
-      <c r="D125" t="n">
-        <v>639</v>
-      </c>
-      <c r="E125" t="n">
-        <v>639</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5652.5657</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>639</v>
-      </c>
-      <c r="C126" t="n">
-        <v>641.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>642</v>
-      </c>
-      <c r="E126" t="n">
-        <v>639</v>
-      </c>
-      <c r="F126" t="n">
-        <v>7894.1179</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-42886.51546202001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>637</v>
-      </c>
-      <c r="C127" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>637</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3.8818</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-42890.39726202001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>635.9</v>
-      </c>
-      <c r="C128" t="n">
-        <v>634.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>635.9</v>
-      </c>
-      <c r="E128" t="n">
-        <v>634.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2410</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-45300.39726202001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>634</v>
-      </c>
-      <c r="C129" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>634</v>
-      </c>
-      <c r="E129" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1494.6</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>634.8</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1040</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>12.0092</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>633</v>
-      </c>
-      <c r="C132" t="n">
-        <v>633</v>
-      </c>
-      <c r="D132" t="n">
-        <v>633</v>
-      </c>
-      <c r="E132" t="n">
-        <v>633</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7.89889415</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-46787.09836787001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>631.6</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>633</v>
-      </c>
-      <c r="C133" t="n">
-        <v>633</v>
-      </c>
-      <c r="D133" t="n">
-        <v>633</v>
-      </c>
-      <c r="E133" t="n">
-        <v>633</v>
-      </c>
-      <c r="F133" t="n">
-        <v>520.70810585</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-46787.09836787001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>633</v>
-      </c>
-      <c r="C134" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>633</v>
-      </c>
-      <c r="E134" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>280</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-47067.09836787001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>633</v>
-      </c>
-      <c r="C135" t="n">
-        <v>633</v>
-      </c>
-      <c r="D135" t="n">
-        <v>633</v>
-      </c>
-      <c r="E135" t="n">
-        <v>633</v>
-      </c>
-      <c r="F135" t="n">
-        <v>16.7977883</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-47050.30057957002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>58.8419</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-47109.14247957001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>633</v>
-      </c>
-      <c r="C137" t="n">
-        <v>634</v>
-      </c>
-      <c r="D137" t="n">
-        <v>634</v>
-      </c>
-      <c r="E137" t="n">
-        <v>633</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2510</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-44599.14247957001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>30</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-44629.14247957001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>633</v>
-      </c>
-      <c r="C139" t="n">
-        <v>633</v>
-      </c>
-      <c r="D139" t="n">
-        <v>633</v>
-      </c>
-      <c r="E139" t="n">
-        <v>633</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-44628.14247957001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>630.5</v>
-      </c>
-      <c r="C140" t="n">
-        <v>630.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>630.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>630.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>502.5274</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-45130.66987957001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>294</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-45424.66987957001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>628</v>
-      </c>
-      <c r="D142" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>628</v>
-      </c>
-      <c r="F142" t="n">
-        <v>706</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-46130.66987957001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>633</v>
-      </c>
-      <c r="C143" t="n">
-        <v>633</v>
-      </c>
-      <c r="D143" t="n">
-        <v>633</v>
-      </c>
-      <c r="E143" t="n">
-        <v>633</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.8414</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>628</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>633</v>
-      </c>
-      <c r="C144" t="n">
-        <v>633</v>
-      </c>
-      <c r="D144" t="n">
-        <v>633</v>
-      </c>
-      <c r="E144" t="n">
-        <v>633</v>
-      </c>
-      <c r="F144" t="n">
-        <v>500</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>632</v>
-      </c>
-      <c r="C145" t="n">
-        <v>633</v>
-      </c>
-      <c r="D145" t="n">
-        <v>633</v>
-      </c>
-      <c r="E145" t="n">
-        <v>632</v>
-      </c>
-      <c r="F145" t="n">
-        <v>570</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>275.829</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-46405.65747957001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>256.6503</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-46662.30777957002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>628.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>628.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>628.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>628.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>256.6503</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-46918.95807957002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="C149" t="n">
-        <v>633</v>
-      </c>
-      <c r="D149" t="n">
-        <v>633</v>
-      </c>
-      <c r="E149" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>450</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-46468.95807957002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>628.4</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>632</v>
-      </c>
-      <c r="C150" t="n">
-        <v>633</v>
-      </c>
-      <c r="D150" t="n">
-        <v>633</v>
-      </c>
-      <c r="E150" t="n">
-        <v>632</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-46468.95807957002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>633</v>
-      </c>
-      <c r="C151" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>633</v>
-      </c>
-      <c r="F151" t="n">
-        <v>9942.1422</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="D152" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>15.6251</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>638.4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>500</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>634</v>
-      </c>
-      <c r="C154" t="n">
-        <v>632.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>634</v>
-      </c>
-      <c r="E154" t="n">
-        <v>632.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>310</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-36836.81587957001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>633</v>
-      </c>
-      <c r="C155" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>633</v>
-      </c>
-      <c r="E155" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-36838.81587957001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>500</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-36338.81587957001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>630.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>621.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>630.3</v>
-      </c>
-      <c r="E157" t="n">
-        <v>621.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>8023.9953</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-44362.81117957002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="C158" t="n">
-        <v>625.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>625.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2905.45672032</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-41457.35445925002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>625.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>625.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>625.8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>625.8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2781.5352</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-41457.35445925002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>621.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>621.4</v>
-      </c>
-      <c r="D160" t="n">
-        <v>621.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>621.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1781</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-43238.35445925002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>621.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>621.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-44728.35445925002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>621.3</v>
-      </c>
-      <c r="C162" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="D162" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="E162" t="n">
-        <v>621</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6538.0574</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-38190.29705925002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>621</v>
-      </c>
-      <c r="C163" t="n">
-        <v>621</v>
-      </c>
-      <c r="D163" t="n">
-        <v>621</v>
-      </c>
-      <c r="E163" t="n">
-        <v>621</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4601.079</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-42791.37605925002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>620.9</v>
-      </c>
-      <c r="C164" t="n">
-        <v>620.9</v>
-      </c>
-      <c r="D164" t="n">
-        <v>620.9</v>
-      </c>
-      <c r="E164" t="n">
-        <v>620.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1660.7261</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-44452.10215925002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>621</v>
-      </c>
-      <c r="C165" t="n">
-        <v>621</v>
-      </c>
-      <c r="D165" t="n">
-        <v>621</v>
-      </c>
-      <c r="E165" t="n">
-        <v>621</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2742.8895</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>621</v>
-      </c>
-      <c r="C166" t="n">
-        <v>621</v>
-      </c>
-      <c r="D166" t="n">
-        <v>621</v>
-      </c>
-      <c r="E166" t="n">
-        <v>621</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2238.8021</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>621</v>
-      </c>
-      <c r="C167" t="n">
-        <v>621</v>
-      </c>
-      <c r="D167" t="n">
-        <v>621</v>
-      </c>
-      <c r="E167" t="n">
-        <v>621</v>
-      </c>
-      <c r="F167" t="n">
-        <v>91.0209</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="D168" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-41708.21265925002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>621.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>621.6</v>
-      </c>
-      <c r="F169" t="n">
-        <v>927.7948</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-42636.00745925002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>625</v>
-      </c>
-      <c r="C170" t="n">
-        <v>619.3</v>
-      </c>
-      <c r="D170" t="n">
-        <v>625</v>
-      </c>
-      <c r="E170" t="n">
-        <v>619.3</v>
-      </c>
-      <c r="F170" t="n">
-        <v>235.3314</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-42871.33885925003</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>619.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1831</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-41040.33885925003</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>621</v>
-      </c>
-      <c r="C172" t="n">
-        <v>621.6</v>
-      </c>
-      <c r="D172" t="n">
-        <v>622.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>621</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1344.649</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-42384.98785925002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>621</v>
-      </c>
-      <c r="C173" t="n">
-        <v>621</v>
-      </c>
-      <c r="D173" t="n">
-        <v>621</v>
-      </c>
-      <c r="E173" t="n">
-        <v>621</v>
-      </c>
-      <c r="F173" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-42448.38785925003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>621</v>
-      </c>
-      <c r="C174" t="n">
-        <v>621</v>
-      </c>
-      <c r="D174" t="n">
-        <v>621</v>
-      </c>
-      <c r="E174" t="n">
-        <v>621</v>
-      </c>
-      <c r="F174" t="n">
-        <v>104.1399</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-42448.38785925003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>620</v>
-      </c>
-      <c r="C175" t="n">
-        <v>620</v>
-      </c>
-      <c r="D175" t="n">
-        <v>620</v>
-      </c>
-      <c r="E175" t="n">
-        <v>620</v>
-      </c>
-      <c r="F175" t="n">
-        <v>513.9</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-42962.28785925003</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>618</v>
-      </c>
-      <c r="C176" t="n">
-        <v>619</v>
-      </c>
-      <c r="D176" t="n">
-        <v>619</v>
-      </c>
-      <c r="E176" t="n">
-        <v>612</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11531.4782</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-54493.76605925003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6485,7 +6247,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>621</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,10 +6283,14 @@
         <v>-54581.47325925002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>617</v>
+      </c>
+      <c r="J178" t="n">
+        <v>621</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,10 +6324,14 @@
         <v>-55081.47325925002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>621</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,10 +6365,14 @@
         <v>-53329.28595925002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>613.1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>621</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,10 +6406,14 @@
         <v>-53789.28595925002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>621</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,7 +6452,9 @@
       <c r="I182" t="n">
         <v>617.1</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>621</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,7 +6491,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>621</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6743,12 +6527,12 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>619</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>621</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,12 +6566,12 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>619</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>621</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6824,7 +6608,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>621</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6858,12 +6644,12 @@
         <v>-55616.39685925002</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>614.1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>621</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,12 +6683,12 @@
         <v>-55116.39685925002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>611.4</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>621</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6939,7 +6725,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>621</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6976,7 +6764,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>621</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,7 +6803,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>621</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,7 +6842,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>621</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7087,7 +6881,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>621</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,7 +6920,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>621</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,7 +6959,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>621</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,7 +6998,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>621</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7235,7 +7037,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>621</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7272,7 +7076,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>621</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,7 +7115,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>621</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,7 +7154,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>621</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7383,7 +7193,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>621</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,7 +7232,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>621</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,7 +7271,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>621</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7494,7 +7310,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>621</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,7 +7349,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>621</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7568,7 +7388,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>621</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7605,7 +7427,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>621</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7642,7 +7466,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>621</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7679,7 +7505,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>621</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7716,7 +7544,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>621</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7753,7 +7583,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>621</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,7 +7622,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>621</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7827,7 +7661,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>621</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7864,7 +7700,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>621</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,12 +7736,12 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>618</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>621</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7937,12 +7775,12 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>618</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>621</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7979,7 +7817,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>621</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,7 +7856,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>621</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,7 +7895,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>621</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,7 +7934,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>621</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,7 +7973,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>621</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8164,7 +8012,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>621</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,7 +8051,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>621</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,7 +8090,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>621</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,7 +8129,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>621</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,7 +8168,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>621</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,7 +8207,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>621</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,7 +8246,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>621</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,7 +8285,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>621</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,7 +8324,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>621</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8494,12 +8360,12 @@
         <v>-55843.15590689002</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>621</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8533,12 +8399,12 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>619.2</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>621</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8572,12 +8438,12 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>624.5</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>621</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,12 +8477,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>620</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>621</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8650,12 +8516,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>621</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8689,12 +8555,12 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>621</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8728,12 +8594,12 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>622</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>621</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8770,7 +8636,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>621</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8804,12 +8672,12 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>621</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,12 +8711,12 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>621</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,12 +8750,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>618.3</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>621</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,12 +8789,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>623</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>621</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,12 +8828,12 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>623</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>621</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,12 +8867,12 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>624</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>621</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9043,7 +8911,9 @@
       <c r="I245" t="n">
         <v>625.4</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>621</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,7 +8952,9 @@
       <c r="I246" t="n">
         <v>625.4</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>621</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9121,7 +8993,9 @@
       <c r="I247" t="n">
         <v>624.1</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>621</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,12 +9029,12 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>621</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,12 +9068,12 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>621</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9238,7 +9112,9 @@
       <c r="I250" t="n">
         <v>622.2</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>621</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,6 +9126,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -682,7 +682,7 @@
         <v>9807.689522870003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8910.201722870002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8911.001722870002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4599.915822870002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3818.710022870002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2827.110022870002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2827.910022870002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2826.210022870002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2828.610022870002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1938.610022870002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-35461.07176202001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-47067.09836787001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-47050.30057957002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-44599.14247957001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-44629.14247957001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-44628.14247957001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-45130.66987957001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-45424.66987957001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-46130.66987957001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-36526.81587957001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6127,14 +6127,10 @@
         <v>-42448.38785925003</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>621</v>
-      </c>
-      <c r="J174" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6167,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>621</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6203,2174 +6193,1832 @@
         <v>-54493.76605925003</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>617</v>
+      </c>
+      <c r="C177" t="n">
+        <v>617</v>
+      </c>
+      <c r="D177" t="n">
+        <v>617</v>
+      </c>
+      <c r="E177" t="n">
+        <v>617</v>
+      </c>
+      <c r="F177" t="n">
+        <v>86.8943</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-54580.66035925003</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.8129</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-54581.47325925002</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>613.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>613.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>500</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-55081.47325925002</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>616</v>
+      </c>
+      <c r="C180" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>616</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1752.1873</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-53329.28595925002</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>460</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-53789.28595925002</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>617</v>
+      </c>
+      <c r="C182" t="n">
+        <v>619</v>
+      </c>
+      <c r="D182" t="n">
+        <v>619</v>
+      </c>
+      <c r="E182" t="n">
+        <v>614</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4071</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-49718.28595925002</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>619</v>
+      </c>
+      <c r="C183" t="n">
+        <v>619</v>
+      </c>
+      <c r="D183" t="n">
+        <v>619</v>
+      </c>
+      <c r="E183" t="n">
+        <v>619</v>
+      </c>
+      <c r="F183" t="n">
+        <v>511.8417</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-49718.28595925002</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>619</v>
+      </c>
+      <c r="C184" t="n">
+        <v>619</v>
+      </c>
+      <c r="D184" t="n">
+        <v>619</v>
+      </c>
+      <c r="E184" t="n">
+        <v>619</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-49718.28595925002</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>619</v>
+      </c>
+      <c r="C185" t="n">
+        <v>619</v>
+      </c>
+      <c r="D185" t="n">
+        <v>619</v>
+      </c>
+      <c r="E185" t="n">
+        <v>619</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3209.237</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-49718.28595925002</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>616.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>616.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>990</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-50708.28595925002</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>614</v>
+      </c>
+      <c r="C187" t="n">
+        <v>611.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>614</v>
+      </c>
+      <c r="E187" t="n">
+        <v>611.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4908.1109</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-55616.39685925002</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>616.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>617</v>
+      </c>
+      <c r="D188" t="n">
+        <v>617</v>
+      </c>
+      <c r="E188" t="n">
+        <v>616.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>500</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-55116.39685925002</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>616</v>
+      </c>
+      <c r="C189" t="n">
+        <v>617</v>
+      </c>
+      <c r="D189" t="n">
+        <v>617</v>
+      </c>
+      <c r="E189" t="n">
+        <v>616</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2671.4842</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-55116.39685925002</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>623</v>
+      </c>
+      <c r="C190" t="n">
         <v>620</v>
       </c>
-      <c r="J176" t="n">
+      <c r="D190" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>620</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5220.3218</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-49896.07505925003</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="E191" t="n">
         <v>621</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="F191" t="n">
+        <v>5221.3025</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-44674.77255925003</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>623</v>
+      </c>
+      <c r="C192" t="n">
+        <v>620</v>
+      </c>
+      <c r="D192" t="n">
+        <v>623</v>
+      </c>
+      <c r="E192" t="n">
+        <v>620</v>
+      </c>
+      <c r="F192" t="n">
+        <v>263.0407</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-44937.81325925003</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2838.5031</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-42099.31015925002</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>630.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>630.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>630.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>630.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-42098.31015925002</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>629</v>
+      </c>
+      <c r="C195" t="n">
+        <v>629</v>
+      </c>
+      <c r="D195" t="n">
+        <v>629</v>
+      </c>
+      <c r="E195" t="n">
+        <v>629</v>
+      </c>
+      <c r="F195" t="n">
+        <v>88.92140000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-42187.23155925002</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>629</v>
+      </c>
+      <c r="C196" t="n">
+        <v>629</v>
+      </c>
+      <c r="D196" t="n">
+        <v>629</v>
+      </c>
+      <c r="E196" t="n">
+        <v>629</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7.0516</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-42187.23155925002</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>629</v>
+      </c>
+      <c r="C197" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>629</v>
+      </c>
+      <c r="E197" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>545</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-42732.23155925002</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>623</v>
+      </c>
+      <c r="D198" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>623</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5784.7003</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-48516.93185925002</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>623</v>
+      </c>
+      <c r="C199" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>623</v>
+      </c>
+      <c r="E199" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-49516.93185925002</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>96.8614</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-49420.07045925002</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>627.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>222.898</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-49197.17245925002</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>627.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>631</v>
+      </c>
+      <c r="D202" t="n">
+        <v>631</v>
+      </c>
+      <c r="E202" t="n">
+        <v>627.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1063.3</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-48133.87245925001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>630.7</v>
+      </c>
+      <c r="C203" t="n">
+        <v>630.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>630.7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>630.7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.7927999999999999</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-48134.66525925002</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>625</v>
+      </c>
+      <c r="C204" t="n">
+        <v>625</v>
+      </c>
+      <c r="D204" t="n">
+        <v>625</v>
+      </c>
+      <c r="E204" t="n">
+        <v>625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>240</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-48374.66525925002</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>629.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.7941</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-48373.87115925002</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>624</v>
+      </c>
+      <c r="C206" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>622</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1496.672</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-46877.19915925002</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>623.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-47200.79915925002</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>29.3429</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-47230.14205925002</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.1773</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-47230.14205925002</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>622.2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>249.7308</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-47230.14205925002</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>622.1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>50</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-47280.14205925002</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>621</v>
+      </c>
+      <c r="C212" t="n">
+        <v>619</v>
+      </c>
+      <c r="D212" t="n">
+        <v>621</v>
+      </c>
+      <c r="E212" t="n">
+        <v>619</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3384.3691</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-50664.51115925002</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>618</v>
+      </c>
+      <c r="C213" t="n">
+        <v>618</v>
+      </c>
+      <c r="D213" t="n">
+        <v>618</v>
+      </c>
+      <c r="E213" t="n">
+        <v>618</v>
+      </c>
+      <c r="F213" t="n">
+        <v>29.683</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-50694.19415925002</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>618</v>
+      </c>
+      <c r="C214" t="n">
+        <v>618</v>
+      </c>
+      <c r="D214" t="n">
+        <v>618</v>
+      </c>
+      <c r="E214" t="n">
+        <v>618</v>
+      </c>
+      <c r="F214" t="n">
+        <v>809.3473</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-50694.19415925002</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>618</v>
+      </c>
+      <c r="C215" t="n">
+        <v>618</v>
+      </c>
+      <c r="D215" t="n">
+        <v>618</v>
+      </c>
+      <c r="E215" t="n">
+        <v>618</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-50694.19415925002</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>618</v>
+      </c>
+      <c r="C216" t="n">
+        <v>618</v>
+      </c>
+      <c r="D216" t="n">
+        <v>618</v>
+      </c>
+      <c r="E216" t="n">
+        <v>618</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2892.9393</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-50694.19415925002</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>618</v>
+      </c>
+      <c r="C217" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>618</v>
+      </c>
+      <c r="E217" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1015.8632</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-51710.05735925001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>616.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>616.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>616.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>616.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-54910.05735925001</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>624.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>624.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>617.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>595.42655236</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-54314.63080689002</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.3876</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-54317.01840689002</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>636.6353</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-54953.65370689002</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>150</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-54953.65370689002</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="D223" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-54952.65370689002</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>80</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-54872.65370689002</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>622.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>622.7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>80</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-54872.65370689002</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>622</v>
+      </c>
+      <c r="C226" t="n">
+        <v>622</v>
+      </c>
+      <c r="D226" t="n">
+        <v>622</v>
+      </c>
+      <c r="E226" t="n">
+        <v>622</v>
+      </c>
+      <c r="F226" t="n">
+        <v>624</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-55496.65370689002</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>624.6</v>
+      </c>
+      <c r="C227" t="n">
+        <v>622</v>
+      </c>
+      <c r="D227" t="n">
+        <v>624.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>622</v>
+      </c>
+      <c r="F227" t="n">
+        <v>125</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-55496.65370689002</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>622</v>
+      </c>
+      <c r="C228" t="n">
+        <v>622</v>
+      </c>
+      <c r="D228" t="n">
+        <v>622</v>
+      </c>
+      <c r="E228" t="n">
+        <v>622</v>
+      </c>
+      <c r="F228" t="n">
+        <v>550</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-55496.65370689002</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>622</v>
+      </c>
+      <c r="C229" t="n">
+        <v>622</v>
+      </c>
+      <c r="D229" t="n">
+        <v>622</v>
+      </c>
+      <c r="E229" t="n">
+        <v>622</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-55496.65370689002</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7.1978</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-55489.45590689002</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>622</v>
+      </c>
+      <c r="C231" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>622</v>
+      </c>
+      <c r="E231" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>353.7</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-55843.15590689002</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>617</v>
-      </c>
-      <c r="C177" t="n">
-        <v>617</v>
-      </c>
-      <c r="D177" t="n">
-        <v>617</v>
-      </c>
-      <c r="E177" t="n">
-        <v>617</v>
-      </c>
-      <c r="F177" t="n">
-        <v>86.8943</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-54580.66035925003</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>621</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.8129</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-54581.47325925002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>617</v>
-      </c>
-      <c r="J178" t="n">
-        <v>621</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>613.1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>613.1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>500</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-55081.47325925002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>615.1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>621</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>616</v>
-      </c>
-      <c r="C180" t="n">
-        <v>617.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>617.5</v>
-      </c>
-      <c r="E180" t="n">
-        <v>616</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1752.1873</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-53329.28595925002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>613.1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>621</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="D181" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="F181" t="n">
-        <v>460</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-53789.28595925002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>617.5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>621</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>617</v>
-      </c>
-      <c r="C182" t="n">
-        <v>619</v>
-      </c>
-      <c r="D182" t="n">
-        <v>619</v>
-      </c>
-      <c r="E182" t="n">
-        <v>614</v>
-      </c>
-      <c r="F182" t="n">
-        <v>4071</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>617.1</v>
-      </c>
-      <c r="J182" t="n">
-        <v>621</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>619</v>
-      </c>
-      <c r="C183" t="n">
-        <v>619</v>
-      </c>
-      <c r="D183" t="n">
-        <v>619</v>
-      </c>
-      <c r="E183" t="n">
-        <v>619</v>
-      </c>
-      <c r="F183" t="n">
-        <v>511.8417</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>621</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>619</v>
-      </c>
-      <c r="C184" t="n">
-        <v>619</v>
-      </c>
-      <c r="D184" t="n">
-        <v>619</v>
-      </c>
-      <c r="E184" t="n">
-        <v>619</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>621</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>619</v>
-      </c>
-      <c r="C185" t="n">
-        <v>619</v>
-      </c>
-      <c r="D185" t="n">
-        <v>619</v>
-      </c>
-      <c r="E185" t="n">
-        <v>619</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3209.237</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>621</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>616.2</v>
-      </c>
-      <c r="C186" t="n">
-        <v>614.1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>616.2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>614.1</v>
-      </c>
-      <c r="F186" t="n">
-        <v>990</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-50708.28595925002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>621</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>614</v>
-      </c>
-      <c r="C187" t="n">
-        <v>611.4</v>
-      </c>
-      <c r="D187" t="n">
-        <v>614</v>
-      </c>
-      <c r="E187" t="n">
-        <v>611.4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4908.1109</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-55616.39685925002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>621</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>616.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>617</v>
-      </c>
-      <c r="D188" t="n">
-        <v>617</v>
-      </c>
-      <c r="E188" t="n">
-        <v>616.9</v>
-      </c>
-      <c r="F188" t="n">
-        <v>500</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-55116.39685925002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>621</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>616</v>
-      </c>
-      <c r="C189" t="n">
-        <v>617</v>
-      </c>
-      <c r="D189" t="n">
-        <v>617</v>
-      </c>
-      <c r="E189" t="n">
-        <v>616</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2671.4842</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-55116.39685925002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>621</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>623</v>
-      </c>
-      <c r="C190" t="n">
-        <v>620</v>
-      </c>
-      <c r="D190" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>620</v>
-      </c>
-      <c r="F190" t="n">
-        <v>5220.3218</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-49896.07505925003</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>621</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="C191" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="D191" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="E191" t="n">
-        <v>621</v>
-      </c>
-      <c r="F191" t="n">
-        <v>5221.3025</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-44674.77255925003</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>621</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>623</v>
-      </c>
-      <c r="C192" t="n">
-        <v>620</v>
-      </c>
-      <c r="D192" t="n">
-        <v>623</v>
-      </c>
-      <c r="E192" t="n">
-        <v>620</v>
-      </c>
-      <c r="F192" t="n">
-        <v>263.0407</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-44937.81325925003</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>621</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="C193" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="E193" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2838.5031</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-42099.31015925002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>621</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="C194" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-42098.31015925002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>621</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>629</v>
-      </c>
-      <c r="C195" t="n">
-        <v>629</v>
-      </c>
-      <c r="D195" t="n">
-        <v>629</v>
-      </c>
-      <c r="E195" t="n">
-        <v>629</v>
-      </c>
-      <c r="F195" t="n">
-        <v>88.92140000000001</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-42187.23155925002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>621</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>629</v>
-      </c>
-      <c r="C196" t="n">
-        <v>629</v>
-      </c>
-      <c r="D196" t="n">
-        <v>629</v>
-      </c>
-      <c r="E196" t="n">
-        <v>629</v>
-      </c>
-      <c r="F196" t="n">
-        <v>7.0516</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-42187.23155925002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>621</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>629</v>
-      </c>
-      <c r="C197" t="n">
-        <v>625.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>629</v>
-      </c>
-      <c r="E197" t="n">
-        <v>625.1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>545</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-42732.23155925002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>621</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>625.1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>623</v>
-      </c>
-      <c r="D198" t="n">
-        <v>625.1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>623</v>
-      </c>
-      <c r="F198" t="n">
-        <v>5784.7003</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-48516.93185925002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>621</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>623</v>
-      </c>
-      <c r="C199" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>623</v>
-      </c>
-      <c r="E199" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-49516.93185925002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>621</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="E200" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="F200" t="n">
-        <v>96.8614</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-49420.07045925002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>621</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>627.8</v>
-      </c>
-      <c r="C201" t="n">
-        <v>627.8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>627.8</v>
-      </c>
-      <c r="E201" t="n">
-        <v>627.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>222.898</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-49197.17245925002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>621</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>631</v>
-      </c>
-      <c r="D202" t="n">
-        <v>631</v>
-      </c>
-      <c r="E202" t="n">
-        <v>627.9</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1063.3</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-48133.87245925001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>621</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="D203" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="E203" t="n">
-        <v>630.7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.7927999999999999</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-48134.66525925002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>621</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>625</v>
-      </c>
-      <c r="C204" t="n">
-        <v>625</v>
-      </c>
-      <c r="D204" t="n">
-        <v>625</v>
-      </c>
-      <c r="E204" t="n">
-        <v>625</v>
-      </c>
-      <c r="F204" t="n">
-        <v>240</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-48374.66525925002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>621</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="E205" t="n">
-        <v>629.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.7941</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-48373.87115925002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>621</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>624</v>
-      </c>
-      <c r="C206" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="D206" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="E206" t="n">
-        <v>622</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1496.672</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-46877.19915925002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>621</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>623.1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>323.6</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-47200.79915925002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>621</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>29.3429</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>621</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="C209" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="D209" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="E209" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1.1773</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>621</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="D210" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="E210" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="F210" t="n">
-        <v>249.7308</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>621</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="C211" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="E211" t="n">
-        <v>622.1</v>
-      </c>
-      <c r="F211" t="n">
-        <v>50</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-47280.14205925002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>621</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>621</v>
-      </c>
-      <c r="C212" t="n">
-        <v>619</v>
-      </c>
-      <c r="D212" t="n">
-        <v>621</v>
-      </c>
-      <c r="E212" t="n">
-        <v>619</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3384.3691</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-50664.51115925002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>621</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>618</v>
-      </c>
-      <c r="C213" t="n">
-        <v>618</v>
-      </c>
-      <c r="D213" t="n">
-        <v>618</v>
-      </c>
-      <c r="E213" t="n">
-        <v>618</v>
-      </c>
-      <c r="F213" t="n">
-        <v>29.683</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>621</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>618</v>
-      </c>
-      <c r="C214" t="n">
-        <v>618</v>
-      </c>
-      <c r="D214" t="n">
-        <v>618</v>
-      </c>
-      <c r="E214" t="n">
-        <v>618</v>
-      </c>
-      <c r="F214" t="n">
-        <v>809.3473</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>621</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>618</v>
-      </c>
-      <c r="C215" t="n">
-        <v>618</v>
-      </c>
-      <c r="D215" t="n">
-        <v>618</v>
-      </c>
-      <c r="E215" t="n">
-        <v>618</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>621</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>618</v>
-      </c>
-      <c r="C216" t="n">
-        <v>618</v>
-      </c>
-      <c r="D216" t="n">
-        <v>618</v>
-      </c>
-      <c r="E216" t="n">
-        <v>618</v>
-      </c>
-      <c r="F216" t="n">
-        <v>2892.9393</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>621</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>618</v>
-      </c>
-      <c r="C217" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="D217" t="n">
-        <v>618</v>
-      </c>
-      <c r="E217" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1015.8632</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-51710.05735925001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>621</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="C218" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="D218" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="E218" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="F218" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-54910.05735925001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>621</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="C219" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="E219" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="F219" t="n">
-        <v>595.42655236</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-54314.63080689002</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>621</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="C220" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="D220" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="E220" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2.3876</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-54317.01840689002</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>621</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="D221" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="E221" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="F221" t="n">
-        <v>636.6353</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-54953.65370689002</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>621</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="C222" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="D222" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="E222" t="n">
-        <v>620.2</v>
-      </c>
-      <c r="F222" t="n">
-        <v>150</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-54953.65370689002</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>621</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="D223" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="E223" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-54952.65370689002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>621</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="C224" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="D224" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="F224" t="n">
-        <v>80</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-54872.65370689002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>621</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="C225" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="D225" t="n">
-        <v>623.7</v>
-      </c>
-      <c r="E225" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="F225" t="n">
-        <v>80</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-54872.65370689002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>621</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>622</v>
-      </c>
-      <c r="C226" t="n">
-        <v>622</v>
-      </c>
-      <c r="D226" t="n">
-        <v>622</v>
-      </c>
-      <c r="E226" t="n">
-        <v>622</v>
-      </c>
-      <c r="F226" t="n">
-        <v>624</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>621</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="C227" t="n">
-        <v>622</v>
-      </c>
-      <c r="D227" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="E227" t="n">
-        <v>622</v>
-      </c>
-      <c r="F227" t="n">
-        <v>125</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>621</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>622</v>
-      </c>
-      <c r="C228" t="n">
-        <v>622</v>
-      </c>
-      <c r="D228" t="n">
-        <v>622</v>
-      </c>
-      <c r="E228" t="n">
-        <v>622</v>
-      </c>
-      <c r="F228" t="n">
-        <v>550</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>621</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>622</v>
-      </c>
-      <c r="C229" t="n">
-        <v>622</v>
-      </c>
-      <c r="D229" t="n">
-        <v>622</v>
-      </c>
-      <c r="E229" t="n">
-        <v>622</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.5685</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>621</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="C230" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="D230" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="E230" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="F230" t="n">
-        <v>7.1978</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-55489.45590689002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>621</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>622</v>
-      </c>
-      <c r="C231" t="n">
-        <v>619.2</v>
-      </c>
-      <c r="D231" t="n">
-        <v>622</v>
-      </c>
-      <c r="E231" t="n">
-        <v>619.2</v>
-      </c>
-      <c r="F231" t="n">
-        <v>353.7</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-55843.15590689002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>621</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8399,12 +8047,12 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,12 +8086,12 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>624.5</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,12 +8125,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>620</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,12 +8164,12 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,12 +8203,12 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8594,12 +8242,12 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>622</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8633,12 +8281,12 @@
         <v>-52448.21460689002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>622.9</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,12 +8320,12 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,12 +8359,12 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,12 +8398,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>618.3</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,12 +8437,12 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>623</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,12 +8476,12 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>623</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,12 +8515,12 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>624</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,9 +8559,7 @@
       <c r="I245" t="n">
         <v>625.4</v>
       </c>
-      <c r="J245" t="n">
-        <v>621</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,9 +8598,7 @@
       <c r="I246" t="n">
         <v>625.4</v>
       </c>
-      <c r="J246" t="n">
-        <v>621</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,9 +8637,7 @@
       <c r="I247" t="n">
         <v>624.1</v>
       </c>
-      <c r="J247" t="n">
-        <v>621</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,12 +8671,12 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,12 +8710,12 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>624.1</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,9 +8754,7 @@
       <c r="I250" t="n">
         <v>622.2</v>
       </c>
-      <c r="J250" t="n">
-        <v>621</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-26 BackTest BCD.xlsx
+++ b/BackTest/2020-01-26 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>205.3348</v>
       </c>
       <c r="G2" t="n">
-        <v>7283.633100000004</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1650</v>
       </c>
       <c r="G3" t="n">
-        <v>7283.633100000004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>830</v>
       </c>
       <c r="G4" t="n">
-        <v>7283.633100000004</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5370.05287713</v>
       </c>
       <c r="G5" t="n">
-        <v>7283.633100000004</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>7283.633100000004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3129.65642287</v>
       </c>
       <c r="G7" t="n">
-        <v>10413.28952287</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>422.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9990.689522870003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>183</v>
       </c>
       <c r="G9" t="n">
-        <v>9807.689522870003</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>138.7338</v>
       </c>
       <c r="G10" t="n">
-        <v>9946.423322870003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>359.0124</v>
       </c>
       <c r="G11" t="n">
-        <v>9946.423322870003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3856.5638</v>
       </c>
       <c r="G12" t="n">
-        <v>6089.859522870003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2859.5422</v>
       </c>
       <c r="G13" t="n">
-        <v>8949.401722870003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.8</v>
       </c>
       <c r="G14" t="n">
-        <v>8950.201722870002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>8910.201722870002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.8</v>
       </c>
       <c r="G16" t="n">
-        <v>8911.001722870002</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4311.0859</v>
       </c>
       <c r="G17" t="n">
-        <v>4599.915822870002</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>781.2058</v>
       </c>
       <c r="G18" t="n">
-        <v>3818.710022870002</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3819.510022870002</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>3819.510022870002</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>992.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2827.110022870002</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2827.910022870002</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2826.210022870002</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2828.610022870002</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>890</v>
       </c>
       <c r="G25" t="n">
-        <v>1938.610022870002</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>504.09541511</v>
       </c>
       <c r="G26" t="n">
-        <v>2442.705437980002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>70.9042</v>
       </c>
       <c r="G27" t="n">
-        <v>2371.801237980002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10.9166</v>
       </c>
       <c r="G28" t="n">
-        <v>2382.717837980003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>11042.7249</v>
       </c>
       <c r="G29" t="n">
-        <v>-8660.007062019997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.8</v>
       </c>
       <c r="G30" t="n">
-        <v>-8659.207062019997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>-8658.407062019998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>686.2098</v>
       </c>
       <c r="G32" t="n">
-        <v>-9344.616862019999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>-9342.216862019999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2.4</v>
       </c>
       <c r="G34" t="n">
-        <v>-9339.816862019999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>391.1209</v>
       </c>
       <c r="G35" t="n">
-        <v>-9730.937762019999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.8</v>
       </c>
       <c r="G36" t="n">
-        <v>-9730.13776202</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>-9728.53776202</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>55.9468</v>
       </c>
       <c r="G38" t="n">
-        <v>-9784.484562019999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>55.9468</v>
       </c>
       <c r="G39" t="n">
-        <v>-9840.431362019999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>85</v>
       </c>
       <c r="G40" t="n">
-        <v>-9925.431362019999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4.1</v>
       </c>
       <c r="G41" t="n">
-        <v>-9921.331362019999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1.6</v>
       </c>
       <c r="G42" t="n">
-        <v>-9919.731362019998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>764.2527</v>
       </c>
       <c r="G43" t="n">
-        <v>-10683.98406202</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>0.8</v>
       </c>
       <c r="G44" t="n">
-        <v>-10683.18406202</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1.9058</v>
       </c>
       <c r="G45" t="n">
-        <v>-10685.08986202</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>28.8755</v>
       </c>
       <c r="G46" t="n">
-        <v>-10713.96536202</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>-10753.96536202</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>-10752.96536202</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>6554.1397</v>
       </c>
       <c r="G49" t="n">
-        <v>-4198.825662019999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>78.17440000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-4198.825662019999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>160.3276</v>
       </c>
       <c r="G51" t="n">
-        <v>-4359.153262019999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-4358.153262019999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5475.8186</v>
       </c>
       <c r="G53" t="n">
-        <v>-9833.971862019998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-9832.971862019998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>507.1689</v>
       </c>
       <c r="G55" t="n">
-        <v>-9832.971862019998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>4928.2367</v>
       </c>
       <c r="G56" t="n">
-        <v>-14761.20856202</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1916.5454</v>
       </c>
       <c r="G57" t="n">
-        <v>-16677.75396202</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2872.6886</v>
       </c>
       <c r="G58" t="n">
-        <v>-16677.75396202</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>169.3882</v>
       </c>
       <c r="G59" t="n">
-        <v>-16847.14216202</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>227.6548</v>
       </c>
       <c r="G60" t="n">
-        <v>-17074.79696202</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1.6</v>
       </c>
       <c r="G61" t="n">
-        <v>-17073.19696202</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>766.1585</v>
       </c>
       <c r="G62" t="n">
-        <v>-17839.35546202</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>12887.2915</v>
       </c>
       <c r="G63" t="n">
-        <v>-30726.64696202</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1274.47</v>
       </c>
       <c r="G64" t="n">
-        <v>-32001.11696202</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2362.873</v>
       </c>
       <c r="G65" t="n">
-        <v>-34363.98996202</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>303.944</v>
       </c>
       <c r="G66" t="n">
-        <v>-34363.98996202</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>91.5635</v>
       </c>
       <c r="G67" t="n">
-        <v>-34272.42646202</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1016.6934</v>
       </c>
       <c r="G68" t="n">
-        <v>-35289.11986202</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>7602.9414</v>
       </c>
       <c r="G69" t="n">
-        <v>-42892.06126202</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>440</v>
       </c>
       <c r="G70" t="n">
-        <v>-42892.06126202</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>783.771</v>
       </c>
       <c r="G71" t="n">
-        <v>-42892.06126202</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>200</v>
       </c>
       <c r="G72" t="n">
-        <v>-42692.06126202</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>330.3</v>
       </c>
       <c r="G73" t="n">
-        <v>-43022.36126202</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>-43020.36126202</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-43020.36126202</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1109.9654</v>
       </c>
       <c r="G76" t="n">
-        <v>-43020.36126202</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>82.1665</v>
       </c>
       <c r="G77" t="n">
-        <v>-43020.36126202</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>115.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>-43136.36116202</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,19 @@
         <v>383.7523</v>
       </c>
       <c r="G79" t="n">
-        <v>-43520.11346202</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>611.5</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2787,23 @@
         <v>116.7</v>
       </c>
       <c r="G80" t="n">
-        <v>-43403.41346202001</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>610.3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2825,23 @@
         <v>2412.6815</v>
       </c>
       <c r="G81" t="n">
-        <v>-40990.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2863,23 @@
         <v>360</v>
       </c>
       <c r="G82" t="n">
-        <v>-40630.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>612.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2901,23 @@
         <v>10301.5913</v>
       </c>
       <c r="G83" t="n">
-        <v>-40630.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>612.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2939,23 @@
         <v>3400</v>
       </c>
       <c r="G84" t="n">
-        <v>-37230.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>612.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2977,23 @@
         <v>320</v>
       </c>
       <c r="G85" t="n">
-        <v>-37230.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>613.6</v>
+      </c>
+      <c r="I85" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3015,23 @@
         <v>611.1353</v>
       </c>
       <c r="G86" t="n">
-        <v>-37230.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>613.6</v>
+      </c>
+      <c r="I86" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3053,23 @@
         <v>22.2241</v>
       </c>
       <c r="G87" t="n">
-        <v>-37230.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>613.6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3091,23 @@
         <v>2110</v>
       </c>
       <c r="G88" t="n">
-        <v>-35120.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>613.6</v>
+      </c>
+      <c r="I88" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3129,21 @@
         <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>-35160.73196202001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3165,23 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>-35160.73196202001</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>617</v>
+      </c>
+      <c r="I90" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3203,21 @@
         <v>497.0066</v>
       </c>
       <c r="G91" t="n">
-        <v>-35657.73856202001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3239,21 @@
         <v>554.0372</v>
       </c>
       <c r="G92" t="n">
-        <v>-36211.77576202001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3275,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-36210.77576202001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3311,21 @@
         <v>944.7581</v>
       </c>
       <c r="G94" t="n">
-        <v>-36210.77576202001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3347,21 @@
         <v>4050.9562</v>
       </c>
       <c r="G95" t="n">
-        <v>-32159.81956202001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3383,21 @@
         <v>1302.7106</v>
       </c>
       <c r="G96" t="n">
-        <v>-30857.10896202001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3419,21 @@
         <v>1374.4504</v>
       </c>
       <c r="G97" t="n">
-        <v>-32231.55936202001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3455,21 @@
         <v>538.5008</v>
       </c>
       <c r="G98" t="n">
-        <v>-32231.55936202001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3491,21 @@
         <v>1931.5483</v>
       </c>
       <c r="G99" t="n">
-        <v>-30300.01106202001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3527,21 @@
         <v>169.0507</v>
       </c>
       <c r="G100" t="n">
-        <v>-30130.96036202001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3563,21 @@
         <v>78.94929999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-30130.96036202001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3599,21 @@
         <v>3965.4425</v>
       </c>
       <c r="G102" t="n">
-        <v>-26165.51786202001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3635,21 @@
         <v>4384.0063</v>
       </c>
       <c r="G103" t="n">
-        <v>-30549.52416202001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3671,21 @@
         <v>2708.9755</v>
       </c>
       <c r="G104" t="n">
-        <v>-27840.54866202001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3707,21 @@
         <v>1141.6304</v>
       </c>
       <c r="G105" t="n">
-        <v>-28982.17906202001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3743,21 @@
         <v>437.1983</v>
       </c>
       <c r="G106" t="n">
-        <v>-28544.98076202001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3779,21 @@
         <v>853.052</v>
       </c>
       <c r="G107" t="n">
-        <v>-27691.92876202001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3815,21 @@
         <v>1712.0453</v>
       </c>
       <c r="G108" t="n">
-        <v>-25979.88346202001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3851,21 @@
         <v>1312.7</v>
       </c>
       <c r="G109" t="n">
-        <v>-27292.58346202001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3887,21 @@
         <v>5797.3301</v>
       </c>
       <c r="G110" t="n">
-        <v>-33089.91356202001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3923,21 @@
         <v>4727.8033</v>
       </c>
       <c r="G111" t="n">
-        <v>-28362.11026202001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3959,21 @@
         <v>4140.3706</v>
       </c>
       <c r="G112" t="n">
-        <v>-32502.48086202001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3995,21 @@
         <v>4738.0845</v>
       </c>
       <c r="G113" t="n">
-        <v>-37240.56536202001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4031,21 @@
         <v>2797.3199</v>
       </c>
       <c r="G114" t="n">
-        <v>-34443.24546202001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4067,21 @@
         <v>138.4125</v>
       </c>
       <c r="G115" t="n">
-        <v>-34581.65796202001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4103,21 @@
         <v>1423.6993</v>
       </c>
       <c r="G116" t="n">
-        <v>-34581.65796202001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4139,21 @@
         <v>879.4138</v>
       </c>
       <c r="G117" t="n">
-        <v>-35461.07176202001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4175,21 @@
         <v>2641</v>
       </c>
       <c r="G118" t="n">
-        <v>-32820.07176202001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4211,21 @@
         <v>8268.0669</v>
       </c>
       <c r="G119" t="n">
-        <v>-41088.13866202001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4247,21 @@
         <v>4068.743</v>
       </c>
       <c r="G120" t="n">
-        <v>-45156.88166202001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4283,21 @@
         <v>94.7</v>
       </c>
       <c r="G121" t="n">
-        <v>-45062.18166202001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4319,21 @@
         <v>5718.4517</v>
       </c>
       <c r="G122" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4355,21 @@
         <v>177.0068</v>
       </c>
       <c r="G123" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4391,21 @@
         <v>166.0722</v>
       </c>
       <c r="G124" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4427,21 @@
         <v>5652.5657</v>
       </c>
       <c r="G125" t="n">
-        <v>-50780.63336202001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4463,21 @@
         <v>7894.1179</v>
       </c>
       <c r="G126" t="n">
-        <v>-42886.51546202001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4499,21 @@
         <v>3.8818</v>
       </c>
       <c r="G127" t="n">
-        <v>-42890.39726202001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4535,21 @@
         <v>2410</v>
       </c>
       <c r="G128" t="n">
-        <v>-45300.39726202001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4571,21 @@
         <v>1494.6</v>
       </c>
       <c r="G129" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4607,21 @@
         <v>1040</v>
       </c>
       <c r="G130" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4643,21 @@
         <v>12.0092</v>
       </c>
       <c r="G131" t="n">
-        <v>-46794.99726202001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4679,21 @@
         <v>7.89889415</v>
       </c>
       <c r="G132" t="n">
-        <v>-46787.09836787001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4715,21 @@
         <v>520.70810585</v>
       </c>
       <c r="G133" t="n">
-        <v>-46787.09836787001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4751,21 @@
         <v>280</v>
       </c>
       <c r="G134" t="n">
-        <v>-47067.09836787001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4787,21 @@
         <v>16.7977883</v>
       </c>
       <c r="G135" t="n">
-        <v>-47050.30057957002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4823,21 @@
         <v>58.8419</v>
       </c>
       <c r="G136" t="n">
-        <v>-47109.14247957001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4859,21 @@
         <v>2510</v>
       </c>
       <c r="G137" t="n">
-        <v>-44599.14247957001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4895,21 @@
         <v>30</v>
       </c>
       <c r="G138" t="n">
-        <v>-44629.14247957001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4931,21 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-44628.14247957001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4967,21 @@
         <v>502.5274</v>
       </c>
       <c r="G140" t="n">
-        <v>-45130.66987957001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5003,21 @@
         <v>294</v>
       </c>
       <c r="G141" t="n">
-        <v>-45424.66987957001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5039,21 @@
         <v>706</v>
       </c>
       <c r="G142" t="n">
-        <v>-46130.66987957001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5075,21 @@
         <v>0.8414</v>
       </c>
       <c r="G143" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5111,21 @@
         <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5147,21 @@
         <v>570</v>
       </c>
       <c r="G145" t="n">
-        <v>-46129.82847957002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5183,21 @@
         <v>275.829</v>
       </c>
       <c r="G146" t="n">
-        <v>-46405.65747957001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5219,21 @@
         <v>256.6503</v>
       </c>
       <c r="G147" t="n">
-        <v>-46662.30777957002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5255,21 @@
         <v>256.6503</v>
       </c>
       <c r="G148" t="n">
-        <v>-46918.95807957002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5291,21 @@
         <v>450</v>
       </c>
       <c r="G149" t="n">
-        <v>-46468.95807957002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5327,21 @@
         <v>1700</v>
       </c>
       <c r="G150" t="n">
-        <v>-46468.95807957002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5363,21 @@
         <v>9942.1422</v>
       </c>
       <c r="G151" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5399,21 @@
         <v>15.6251</v>
       </c>
       <c r="G152" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5435,21 @@
         <v>500</v>
       </c>
       <c r="G153" t="n">
-        <v>-36526.81587957001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5471,21 @@
         <v>310</v>
       </c>
       <c r="G154" t="n">
-        <v>-36836.81587957001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5507,21 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>-36838.81587957001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5543,21 @@
         <v>500</v>
       </c>
       <c r="G156" t="n">
-        <v>-36338.81587957001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5579,21 @@
         <v>8023.9953</v>
       </c>
       <c r="G157" t="n">
-        <v>-44362.81117957002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5615,21 @@
         <v>2905.45672032</v>
       </c>
       <c r="G158" t="n">
-        <v>-41457.35445925002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5651,21 @@
         <v>2781.5352</v>
       </c>
       <c r="G159" t="n">
-        <v>-41457.35445925002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5687,21 @@
         <v>1781</v>
       </c>
       <c r="G160" t="n">
-        <v>-43238.35445925002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5723,21 @@
         <v>1490</v>
       </c>
       <c r="G161" t="n">
-        <v>-44728.35445925002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5759,21 @@
         <v>6538.0574</v>
       </c>
       <c r="G162" t="n">
-        <v>-38190.29705925002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5795,21 @@
         <v>4601.079</v>
       </c>
       <c r="G163" t="n">
-        <v>-42791.37605925002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5831,21 @@
         <v>1660.7261</v>
       </c>
       <c r="G164" t="n">
-        <v>-44452.10215925002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5867,21 @@
         <v>2742.8895</v>
       </c>
       <c r="G165" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5903,21 @@
         <v>2238.8021</v>
       </c>
       <c r="G166" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5939,21 @@
         <v>91.0209</v>
       </c>
       <c r="G167" t="n">
-        <v>-41709.21265925002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5975,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>-41708.21265925002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6011,21 @@
         <v>927.7948</v>
       </c>
       <c r="G169" t="n">
-        <v>-42636.00745925002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6047,21 @@
         <v>235.3314</v>
       </c>
       <c r="G170" t="n">
-        <v>-42871.33885925003</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6083,21 @@
         <v>1831</v>
       </c>
       <c r="G171" t="n">
-        <v>-41040.33885925003</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6119,21 @@
         <v>1344.649</v>
       </c>
       <c r="G172" t="n">
-        <v>-42384.98785925002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6155,21 @@
         <v>63.4</v>
       </c>
       <c r="G173" t="n">
-        <v>-42448.38785925003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6191,21 @@
         <v>104.1399</v>
       </c>
       <c r="G174" t="n">
-        <v>-42448.38785925003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6227,21 @@
         <v>513.9</v>
       </c>
       <c r="G175" t="n">
-        <v>-42962.28785925003</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6263,21 @@
         <v>11531.4782</v>
       </c>
       <c r="G176" t="n">
-        <v>-54493.76605925003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6299,21 @@
         <v>86.8943</v>
       </c>
       <c r="G177" t="n">
-        <v>-54580.66035925003</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6335,21 @@
         <v>0.8129</v>
       </c>
       <c r="G178" t="n">
-        <v>-54581.47325925002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6371,21 @@
         <v>500</v>
       </c>
       <c r="G179" t="n">
-        <v>-55081.47325925002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6407,21 @@
         <v>1752.1873</v>
       </c>
       <c r="G180" t="n">
-        <v>-53329.28595925002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6443,21 @@
         <v>460</v>
       </c>
       <c r="G181" t="n">
-        <v>-53789.28595925002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6479,21 @@
         <v>4071</v>
       </c>
       <c r="G182" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6515,21 @@
         <v>511.8417</v>
       </c>
       <c r="G183" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6551,21 @@
         <v>1250</v>
       </c>
       <c r="G184" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6587,21 @@
         <v>3209.237</v>
       </c>
       <c r="G185" t="n">
-        <v>-49718.28595925002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6623,21 @@
         <v>990</v>
       </c>
       <c r="G186" t="n">
-        <v>-50708.28595925002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6659,21 @@
         <v>4908.1109</v>
       </c>
       <c r="G187" t="n">
-        <v>-55616.39685925002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6695,21 @@
         <v>500</v>
       </c>
       <c r="G188" t="n">
-        <v>-55116.39685925002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6731,21 @@
         <v>2671.4842</v>
       </c>
       <c r="G189" t="n">
-        <v>-55116.39685925002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6767,21 @@
         <v>5220.3218</v>
       </c>
       <c r="G190" t="n">
-        <v>-49896.07505925003</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6803,21 @@
         <v>5221.3025</v>
       </c>
       <c r="G191" t="n">
-        <v>-44674.77255925003</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6839,21 @@
         <v>263.0407</v>
       </c>
       <c r="G192" t="n">
-        <v>-44937.81325925003</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6875,21 @@
         <v>2838.5031</v>
       </c>
       <c r="G193" t="n">
-        <v>-42099.31015925002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6911,21 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>-42098.31015925002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6947,21 @@
         <v>88.92140000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-42187.23155925002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6983,21 @@
         <v>7.0516</v>
       </c>
       <c r="G196" t="n">
-        <v>-42187.23155925002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +7019,21 @@
         <v>545</v>
       </c>
       <c r="G197" t="n">
-        <v>-42732.23155925002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +7055,21 @@
         <v>5784.7003</v>
       </c>
       <c r="G198" t="n">
-        <v>-48516.93185925002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +7091,21 @@
         <v>1000</v>
       </c>
       <c r="G199" t="n">
-        <v>-49516.93185925002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7127,21 @@
         <v>96.8614</v>
       </c>
       <c r="G200" t="n">
-        <v>-49420.07045925002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7163,21 @@
         <v>222.898</v>
       </c>
       <c r="G201" t="n">
-        <v>-49197.17245925002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7199,21 @@
         <v>1063.3</v>
       </c>
       <c r="G202" t="n">
-        <v>-48133.87245925001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7235,21 @@
         <v>0.7927999999999999</v>
       </c>
       <c r="G203" t="n">
-        <v>-48134.66525925002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7271,21 @@
         <v>240</v>
       </c>
       <c r="G204" t="n">
-        <v>-48374.66525925002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7307,21 @@
         <v>0.7941</v>
       </c>
       <c r="G205" t="n">
-        <v>-48373.87115925002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7343,21 @@
         <v>1496.672</v>
       </c>
       <c r="G206" t="n">
-        <v>-46877.19915925002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7379,21 @@
         <v>323.6</v>
       </c>
       <c r="G207" t="n">
-        <v>-47200.79915925002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7415,21 @@
         <v>29.3429</v>
       </c>
       <c r="G208" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7451,21 @@
         <v>1.1773</v>
       </c>
       <c r="G209" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7487,21 @@
         <v>249.7308</v>
       </c>
       <c r="G210" t="n">
-        <v>-47230.14205925002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7523,21 @@
         <v>50</v>
       </c>
       <c r="G211" t="n">
-        <v>-47280.14205925002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7559,21 @@
         <v>3384.3691</v>
       </c>
       <c r="G212" t="n">
-        <v>-50664.51115925002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7595,21 @@
         <v>29.683</v>
       </c>
       <c r="G213" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7631,21 @@
         <v>809.3473</v>
       </c>
       <c r="G214" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7667,21 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7703,21 @@
         <v>2892.9393</v>
       </c>
       <c r="G216" t="n">
-        <v>-50694.19415925002</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7739,21 @@
         <v>1015.8632</v>
       </c>
       <c r="G217" t="n">
-        <v>-51710.05735925001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7775,21 @@
         <v>3200</v>
       </c>
       <c r="G218" t="n">
-        <v>-54910.05735925001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7811,21 @@
         <v>595.42655236</v>
       </c>
       <c r="G219" t="n">
-        <v>-54314.63080689002</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7847,21 @@
         <v>2.3876</v>
       </c>
       <c r="G220" t="n">
-        <v>-54317.01840689002</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7883,21 @@
         <v>636.6353</v>
       </c>
       <c r="G221" t="n">
-        <v>-54953.65370689002</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7919,21 @@
         <v>150</v>
       </c>
       <c r="G222" t="n">
-        <v>-54953.65370689002</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7955,21 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>-54952.65370689002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7991,21 @@
         <v>80</v>
       </c>
       <c r="G224" t="n">
-        <v>-54872.65370689002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +8027,21 @@
         <v>80</v>
       </c>
       <c r="G225" t="n">
-        <v>-54872.65370689002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +8063,21 @@
         <v>624</v>
       </c>
       <c r="G226" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +8099,21 @@
         <v>125</v>
       </c>
       <c r="G227" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +8135,21 @@
         <v>550</v>
       </c>
       <c r="G228" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +8171,21 @@
         <v>0.5685</v>
       </c>
       <c r="G229" t="n">
-        <v>-55496.65370689002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +8207,21 @@
         <v>7.1978</v>
       </c>
       <c r="G230" t="n">
-        <v>-55489.45590689002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,24 +8243,21 @@
         <v>353.7</v>
       </c>
       <c r="G231" t="n">
-        <v>-55843.15590689002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8044,24 +8279,21 @@
         <v>10.9685</v>
       </c>
       <c r="G232" t="n">
-        <v>-55832.18740689001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>619.2</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8083,24 +8315,21 @@
         <v>29</v>
       </c>
       <c r="G233" t="n">
-        <v>-55861.18740689001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>624.5</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8122,24 +8351,21 @@
         <v>1926.8581</v>
       </c>
       <c r="G234" t="n">
-        <v>-53934.32930689002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>620</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8161,24 +8387,21 @@
         <v>745.0855</v>
       </c>
       <c r="G235" t="n">
-        <v>-53934.32930689002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8200,24 +8423,21 @@
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>-53933.32930689002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8239,24 +8459,21 @@
         <v>1038.1</v>
       </c>
       <c r="G237" t="n">
-        <v>-52895.22930689002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>622</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8278,24 +8495,21 @@
         <v>447.0147</v>
       </c>
       <c r="G238" t="n">
-        <v>-52448.21460689002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>622.9</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8317,24 +8531,21 @@
         <v>1914.902</v>
       </c>
       <c r="G239" t="n">
-        <v>-50533.31260689002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8356,24 +8567,21 @@
         <v>870</v>
       </c>
       <c r="G240" t="n">
-        <v>-51403.31260689002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8395,24 +8603,21 @@
         <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>-51402.31260689002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="n">
-        <v>618.3</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8434,24 +8639,21 @@
         <v>32.0227</v>
       </c>
       <c r="G242" t="n">
-        <v>-51402.31260689002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>623</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8473,24 +8675,21 @@
         <v>17</v>
       </c>
       <c r="G243" t="n">
-        <v>-51385.31260689002</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="n">
-        <v>623</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8512,24 +8711,21 @@
         <v>27</v>
       </c>
       <c r="G244" t="n">
-        <v>-51358.31260689002</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>624</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8551,24 +8747,21 @@
         <v>157.8</v>
       </c>
       <c r="G245" t="n">
-        <v>-51358.31260689002</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>625.4</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8590,24 +8783,21 @@
         <v>568.763</v>
       </c>
       <c r="G246" t="n">
-        <v>-51927.07560689002</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>625.4</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8629,24 +8819,21 @@
         <v>4701.4629</v>
       </c>
       <c r="G247" t="n">
-        <v>-51927.07560689002</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8668,24 +8855,21 @@
         <v>1729.7741</v>
       </c>
       <c r="G248" t="n">
-        <v>-51927.07560689002</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8707,24 +8891,21 @@
         <v>50</v>
       </c>
       <c r="G249" t="n">
-        <v>-51977.07560689002</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>624.1</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8746,24 +8927,21 @@
         <v>29.342</v>
       </c>
       <c r="G250" t="n">
-        <v>-52006.41760689001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>611.5</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
